--- a/Datasets/European-Country/Complete_Dataset.xlsx
+++ b/Datasets/European-Country/Complete_Dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Magistrale\Statistica e Analisi dei Dati\SAD_Project\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTENTE\git\SAD_Project\Datasets\European-Country\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B38D66C-2740-49A1-9034-6669F88B71EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01B6C8-F183-4EFC-9ED2-8CEE9DDBF582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OECD.Stat export" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Austria</t>
   </si>
@@ -111,6 +109,9 @@
   </si>
   <si>
     <t>Romania</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
   </si>
 </sst>
 </file>
@@ -637,7 +638,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1007,24 +1011,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI27"/>
+  <dimension ref="A1:BI28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e">
         <f ca="1">DotStatQuery(#REF!)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>4.976</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1394,4449 +1398,4635 @@
         <v>4.6379999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>482.12700000000001</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>1.4339999999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>486.44200000000001</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>1.32</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>503.577</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>1.226</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>522.98699999999997</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="6">
         <v>1.1539999999999999</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <v>547.98099999999999</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <v>1.151</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
         <v>562.21199999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="6">
         <v>1.1819999999999999</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="6">
         <v>576.83100000000002</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="6">
         <v>1.248</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="6">
         <v>600.49300000000005</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="6">
         <v>1.097</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="6">
         <v>581.96299999999997</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="6">
         <v>1.1479999999999999</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="6">
         <v>562.71100000000001</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="6">
         <v>1.071</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="6">
         <v>560.32299999999998</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="6">
         <v>1.125</v>
       </c>
-      <c r="X4" s="4">
+      <c r="X4" s="6">
         <v>546.93499999999995</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="6">
         <v>1.173</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="6">
         <v>535.52099999999996</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="6">
         <v>1.2450000000000001</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="6">
         <v>523.58100000000002</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="6">
         <v>1.3109999999999999</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="6">
         <v>514.33600000000001</v>
       </c>
-      <c r="AE4" s="4">
+      <c r="AE4" s="6">
         <v>1.397</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AF4" s="6">
         <v>513.93299999999999</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AG4" s="6">
         <v>1.496</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AH4" s="6">
         <v>511.964</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AI4" s="6">
         <v>1.5980000000000001</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AJ4" s="6">
         <v>497.65499999999997</v>
       </c>
-      <c r="AK4" s="4">
+      <c r="AK4" s="6">
         <v>1.7030000000000001</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AL4" s="6">
         <v>483.55799999999999</v>
       </c>
-      <c r="AM4" s="4">
+      <c r="AM4" s="6">
         <v>1.8069999999999999</v>
       </c>
-      <c r="AN4" s="4">
+      <c r="AN4" s="6">
         <v>473.44499999999999</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="6">
         <v>1.762</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AP4" s="6">
         <v>466.81</v>
       </c>
-      <c r="AQ4" s="4">
+      <c r="AQ4" s="6">
         <v>1.782</v>
       </c>
-      <c r="AR4" s="4">
+      <c r="AR4" s="6">
         <v>456.18400000000003</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AS4" s="6">
         <v>1.83</v>
       </c>
-      <c r="AT4" s="4">
+      <c r="AT4" s="6">
         <v>437.565</v>
       </c>
-      <c r="AU4" s="4">
+      <c r="AU4" s="6">
         <v>1.8460000000000001</v>
       </c>
-      <c r="AV4" s="4">
+      <c r="AV4" s="6">
         <v>420.49200000000002</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AW4" s="6">
         <v>1.861</v>
       </c>
-      <c r="AX4" s="4">
+      <c r="AX4" s="6">
         <v>426.03100000000001</v>
       </c>
-      <c r="AY4" s="4">
+      <c r="AY4" s="6">
         <v>1.903</v>
       </c>
-      <c r="AZ4" s="4">
+      <c r="AZ4" s="6">
         <v>418.75</v>
       </c>
-      <c r="BA4" s="4">
+      <c r="BA4" s="6">
         <v>1.9830000000000001</v>
       </c>
-      <c r="BB4" s="4">
+      <c r="BB4" s="6">
         <v>416.00799999999998</v>
       </c>
-      <c r="BC4" s="4">
+      <c r="BC4" s="6">
         <v>2.0630000000000002</v>
       </c>
-      <c r="BD4" s="4">
+      <c r="BD4" s="6">
         <v>415.59399999999999</v>
       </c>
-      <c r="BE4" s="4">
+      <c r="BE4" s="6">
         <v>2.141</v>
       </c>
-      <c r="BF4" s="4">
+      <c r="BF4" s="6">
         <v>425.72300000000001</v>
       </c>
-      <c r="BG4" s="4">
+      <c r="BG4" s="6">
         <v>2.2149999999999999</v>
       </c>
-      <c r="BH4" s="4">
+      <c r="BH4" s="6">
         <v>432.00200000000001</v>
       </c>
-      <c r="BI4" s="4">
+      <c r="BI4" s="6">
         <v>2.2970000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4">
+        <v>179.72</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>181.03100000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>182.215</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>181.71</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="J5" s="4">
+        <v>177.96</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="L5" s="4">
+        <v>174.87299999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="N5" s="4">
+        <v>170.11699999999999</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="P5" s="4">
+        <v>167.88499999999999</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R5" s="4">
+        <v>168.81800000000001</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2.3540000000000001</v>
+      </c>
+      <c r="T5" s="4">
+        <v>167.89</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="V5" s="4">
+        <v>161.08600000000001</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2.488</v>
+      </c>
+      <c r="X5" s="4">
+        <v>155.203</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>152.422</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2.569</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>150.666</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>150.08799999999999</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>150.40100000000001</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>2.7210000000000001</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>150.851</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>2.7839999999999998</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>149.303</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>144.03100000000001</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>2.9020000000000001</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>139.15799999999999</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>134.36600000000001</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>130.387</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>2.82</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>127.21299999999999</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>2.7229999999999999</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>126.05800000000001</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>2.5630000000000002</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>126.776</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>127.21299999999999</v>
+      </c>
+      <c r="BA5" s="4">
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="BB5" s="4">
+        <v>126.21899999999999</v>
+      </c>
+      <c r="BC5" s="4">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="BD5" s="4">
+        <v>127.358</v>
+      </c>
+      <c r="BE5" s="4">
+        <v>2.758</v>
+      </c>
+      <c r="BF5" s="4">
+        <v>130.11199999999999</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>2.8279999999999998</v>
+      </c>
+      <c r="BH5" s="4">
+        <v>133.62299999999999</v>
+      </c>
+      <c r="BI5" s="4">
+        <v>2.883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>427.03899999999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>2.2480000000000002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>405.12400000000002</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <v>1.9730000000000001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>390.98700000000002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <v>1.698</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <v>380.00599999999997</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <v>1.593</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="3">
         <v>369.77</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="3">
         <v>1.484</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="3">
         <v>370.221</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M6" s="3">
         <v>1.573</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N6" s="3">
         <v>375.90699999999998</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O6" s="3">
         <v>1.669</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P6" s="3">
         <v>383.67</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q6" s="3">
         <v>1.7849999999999999</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R6" s="3">
         <v>378.61900000000003</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S6" s="3">
         <v>1.8320000000000001</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T6" s="3">
         <v>374.64400000000001</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U6" s="3">
         <v>1.831</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V6" s="3">
         <v>364.67700000000002</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W6" s="3">
         <v>1.8959999999999999</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X6" s="3">
         <v>361.39699999999999</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y6" s="3">
         <v>1.9610000000000001</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z6" s="3">
         <v>368.42500000000001</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA6" s="3">
         <v>2.056</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB6" s="3">
         <v>380.43099999999998</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC6" s="3">
         <v>2.1629999999999998</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD6" s="3">
         <v>371.423</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE6" s="3">
         <v>2.2469999999999999</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF6" s="3">
         <v>381.10199999999998</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG6" s="3">
         <v>2.3359999999999999</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH6" s="3">
         <v>375.37</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI6" s="3">
         <v>2.4449999999999998</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ6" s="3">
         <v>385.52</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK6" s="3">
         <v>2.5649999999999999</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL6" s="3">
         <v>391.83300000000003</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM6" s="3">
         <v>2.7610000000000001</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN6" s="3">
         <v>380.07299999999998</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO6" s="3">
         <v>2.6030000000000002</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP6" s="3">
         <v>376.47500000000002</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ6" s="3">
         <v>2.5779999999999998</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR6" s="3">
         <v>370.31299999999999</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS6" s="3">
         <v>2.5790000000000002</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT6" s="3">
         <v>365.93599999999998</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU6" s="3">
         <v>2.5409999999999999</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AV6" s="3">
         <v>351.69099999999997</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AW6" s="3">
         <v>2.5390000000000001</v>
       </c>
-      <c r="AX5" s="3">
+      <c r="AX6" s="3">
         <v>354.20800000000003</v>
       </c>
-      <c r="AY5" s="3">
+      <c r="AY6" s="3">
         <v>2.5470000000000002</v>
       </c>
-      <c r="AZ5" s="3">
+      <c r="AZ6" s="3">
         <v>368.964</v>
       </c>
-      <c r="BA5" s="3">
+      <c r="BA6" s="3">
         <v>2.6070000000000002</v>
       </c>
-      <c r="BB5" s="3">
+      <c r="BB6" s="3">
         <v>347.577</v>
       </c>
-      <c r="BC5" s="3">
+      <c r="BC6" s="3">
         <v>2.5369999999999999</v>
       </c>
-      <c r="BD5" s="3">
+      <c r="BD6" s="3">
         <v>351.988</v>
       </c>
-      <c r="BE5" s="3">
+      <c r="BE6" s="3">
         <v>2.7730000000000001</v>
       </c>
-      <c r="BF5" s="3">
+      <c r="BF6" s="3">
         <v>355.69099999999997</v>
       </c>
-      <c r="BG5" s="3">
+      <c r="BG6" s="3">
         <v>2.847</v>
       </c>
-      <c r="BH5" s="3">
+      <c r="BH6" s="3">
         <v>363.15</v>
       </c>
-      <c r="BI5" s="3">
+      <c r="BI6" s="3">
         <v>2.9279999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>275.75</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="4">
         <v>3.7440000000000002</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D7" s="4">
         <v>269.70299999999997</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E7" s="4">
         <v>3.778</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
         <v>267.64100000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G7" s="4">
         <v>3.827</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H7" s="4">
         <v>265.24700000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I7" s="4">
         <v>3.8159999999999998</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J7" s="4">
         <v>259.51400000000001</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K7" s="4">
         <v>3.9649999999999999</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L7" s="4">
         <v>252.851</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M7" s="4">
         <v>4.048</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N7" s="4">
         <v>241.66399999999999</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O7" s="4">
         <v>4.1269999999999998</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P7" s="4">
         <v>229.09899999999999</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q7" s="4">
         <v>4.22</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R7" s="4">
         <v>216.49</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S7" s="4">
         <v>4.28</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T7" s="4">
         <v>211.751</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U7" s="4">
         <v>4.3659999999999997</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V7" s="4">
         <v>199.48500000000001</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W7" s="4">
         <v>4.484</v>
       </c>
-      <c r="X6" s="4">
+      <c r="X7" s="4">
         <v>195.398</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="Y7" s="4">
         <v>4.5019999999999998</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z7" s="4">
         <v>190.208</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA7" s="4">
         <v>4.5090000000000003</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AB7" s="4">
         <v>181.066</v>
       </c>
-      <c r="AC6" s="4">
+      <c r="AC7" s="4">
         <v>4.5129999999999999</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AD7" s="4">
         <v>170.90600000000001</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AE7" s="4">
         <v>4.5990000000000002</v>
       </c>
-      <c r="AF6" s="4">
+      <c r="AF7" s="4">
         <v>161.398</v>
       </c>
-      <c r="AG6" s="4">
+      <c r="AG7" s="4">
         <v>4.6710000000000003</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AH7" s="4">
         <v>156.50700000000001</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AI7" s="4">
         <v>4.8010000000000002</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AJ7" s="4">
         <v>151.238</v>
       </c>
-      <c r="AK6" s="4">
+      <c r="AK7" s="4">
         <v>4.8179999999999996</v>
       </c>
-      <c r="AL6" s="4">
+      <c r="AL7" s="4">
         <v>144.602</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM7" s="4">
         <v>4.7789999999999999</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN7" s="4">
         <v>140.80199999999999</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO7" s="4">
         <v>4.5709999999999997</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AP7" s="4">
         <v>135.548</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ7" s="4">
         <v>4.62</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR7" s="4">
         <v>129.988</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS7" s="4">
         <v>4.6509999999999998</v>
       </c>
-      <c r="AT6" s="4">
+      <c r="AT7" s="4">
         <v>126.45699999999999</v>
       </c>
-      <c r="AU6" s="4">
+      <c r="AU7" s="4">
         <v>4.641</v>
       </c>
-      <c r="AV6" s="4">
+      <c r="AV7" s="4">
         <v>124.07</v>
       </c>
-      <c r="AW6" s="4">
+      <c r="AW7" s="4">
         <v>4.657</v>
       </c>
-      <c r="AX6" s="4">
+      <c r="AX7" s="4">
         <v>120.82599999999999</v>
       </c>
-      <c r="AY6" s="4">
+      <c r="AY7" s="4">
         <v>4.7</v>
       </c>
-      <c r="AZ6" s="4">
+      <c r="AZ7" s="4">
         <v>119.337</v>
       </c>
-      <c r="BA6" s="4">
+      <c r="BA7" s="4">
         <v>4.7709999999999999</v>
       </c>
-      <c r="BB6" s="4">
+      <c r="BB7" s="4">
         <v>120.441</v>
       </c>
-      <c r="BC6" s="4">
+      <c r="BC7" s="4">
         <v>4.8789999999999996</v>
       </c>
-      <c r="BD6" s="4">
+      <c r="BD7" s="4">
         <v>121.629</v>
       </c>
-      <c r="BE6" s="4">
+      <c r="BE7" s="4">
         <v>4.9749999999999996</v>
       </c>
-      <c r="BF6" s="4">
+      <c r="BF7" s="4">
         <v>122.98</v>
       </c>
-      <c r="BG6" s="4">
+      <c r="BG7" s="4">
         <v>5.0469999999999997</v>
       </c>
-      <c r="BH6" s="4">
+      <c r="BH7" s="4">
         <v>124.334</v>
       </c>
-      <c r="BI6" s="4">
+      <c r="BI7" s="4">
         <v>5.1479999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>270.17700000000002</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>1.607</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>282.18799999999999</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>1.5449999999999999</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>280.63200000000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>1.484</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>304.93799999999999</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <v>1.3009999999999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <v>329.69600000000003</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="3">
         <v>1.306</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L8" s="3">
         <v>313.07</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M8" s="3">
         <v>1.379</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N8" s="3">
         <v>274.82400000000001</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O8" s="3">
         <v>1.4550000000000001</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P8" s="3">
         <v>271.75700000000001</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q8" s="3">
         <v>1.633</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R8" s="3">
         <v>283.82499999999999</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S8" s="3">
         <v>1.7</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T8" s="3">
         <v>268.67599999999999</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U8" s="3">
         <v>1.696</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V8" s="3">
         <v>266.07900000000001</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W8" s="3">
         <v>1.855</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X8" s="3">
         <v>272.74200000000002</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y8" s="3">
         <v>1.964</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z8" s="3">
         <v>262.90100000000001</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA8" s="3">
         <v>2.0960000000000001</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB8" s="3">
         <v>255.321</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC8" s="3">
         <v>2.2530000000000001</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD8" s="3">
         <v>247.375</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE8" s="3">
         <v>2.4049999999999998</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF8" s="3">
         <v>238.137</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG8" s="3">
         <v>2.6230000000000002</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH8" s="3">
         <v>230.62899999999999</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI8" s="3">
         <v>3.0059999999999998</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ8" s="3">
         <v>224.01499999999999</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK8" s="3">
         <v>3.1970000000000001</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL8" s="3">
         <v>201.137</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM8" s="3">
         <v>3.0739999999999998</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN8" s="3">
         <v>185.77699999999999</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO8" s="3">
         <v>2.72</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP8" s="3">
         <v>167.54400000000001</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ8" s="3">
         <v>2.7850000000000001</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR8" s="3">
         <v>164.797</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AS8" s="3">
         <v>2.9569999999999999</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT8" s="3">
         <v>159.51499999999999</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AU8" s="3">
         <v>3.0390000000000001</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV8" s="3">
         <v>150.71</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AW8" s="3">
         <v>3.08</v>
       </c>
-      <c r="AX7" s="3">
+      <c r="AX8" s="3">
         <v>151.17400000000001</v>
       </c>
-      <c r="AY7" s="3">
+      <c r="AY8" s="3">
         <v>3.1579999999999999</v>
       </c>
-      <c r="AZ7" s="3">
+      <c r="AZ8" s="3">
         <v>145.16999999999999</v>
       </c>
-      <c r="BA7" s="3">
+      <c r="BA8" s="3">
         <v>3.2069999999999999</v>
       </c>
-      <c r="BB7" s="3">
+      <c r="BB8" s="3">
         <v>148.85499999999999</v>
       </c>
-      <c r="BC7" s="3">
+      <c r="BC8" s="3">
         <v>3.286</v>
       </c>
-      <c r="BD7" s="3">
+      <c r="BD8" s="3">
         <v>150.86600000000001</v>
       </c>
-      <c r="BE7" s="3">
+      <c r="BE8" s="3">
         <v>3.4239999999999999</v>
       </c>
-      <c r="BF7" s="3">
+      <c r="BF8" s="3">
         <v>152.79499999999999</v>
       </c>
-      <c r="BG7" s="3">
+      <c r="BG8" s="3">
         <v>3.5350000000000001</v>
       </c>
-      <c r="BH7" s="3">
+      <c r="BH8" s="3">
         <v>153.87899999999999</v>
       </c>
-      <c r="BI7" s="3">
+      <c r="BI8" s="3">
         <v>3.669</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B9" s="4">
         <v>137.21100000000001</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>3.2690000000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D9" s="4">
         <v>131.672</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E9" s="4">
         <v>3.1030000000000002</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="4">
         <v>128.38200000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="4">
         <v>3.008</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="4">
         <v>124.47799999999999</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="4">
         <v>2.98</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="4">
         <v>117.29300000000001</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="4">
         <v>3.0609999999999999</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="4">
         <v>115.792</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="4">
         <v>3.153</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="4">
         <v>113.67700000000001</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="4">
         <v>3.2370000000000001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="4">
         <v>111.785</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="4">
         <v>3.3919999999999999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="4">
         <v>109.47799999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="4">
         <v>3.532</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="4">
         <v>106.81100000000001</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="4">
         <v>3.649</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V9" s="4">
         <v>103.84</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W9" s="4">
         <v>3.8090000000000002</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X9" s="4">
         <v>99.254000000000005</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y9" s="4">
         <v>3.8809999999999998</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z9" s="4">
         <v>96.069000000000003</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA9" s="4">
         <v>3.9260000000000002</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB9" s="4">
         <v>92.319000000000003</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC9" s="4">
         <v>3.9809999999999999</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD9" s="4">
         <v>88.281999999999996</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE9" s="4">
         <v>4.0979999999999999</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF9" s="4">
         <v>84.820999999999998</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG9" s="4">
         <v>4.1779999999999999</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH9" s="4">
         <v>81.277000000000001</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI9" s="4">
         <v>4.3</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AJ9" s="4">
         <v>79.474999999999994</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK9" s="4">
         <v>4.468</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL9" s="4">
         <v>77.222999999999999</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AM9" s="4">
         <v>4.4809999999999999</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AN9" s="4">
         <v>75.784999999999997</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AO9" s="4">
         <v>4.1749999999999998</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AP9" s="4">
         <v>74.728999999999999</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AQ9" s="4">
         <v>4.266</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="AR9" s="4">
         <v>73.054000000000002</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AS9" s="4">
         <v>4.3369999999999997</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AT9" s="4">
         <v>71.852999999999994</v>
       </c>
-      <c r="AU8" s="4">
+      <c r="AU9" s="4">
         <v>4.2729999999999997</v>
       </c>
-      <c r="AV8" s="4">
+      <c r="AV9" s="4">
         <v>70.899000000000001</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AW9" s="4">
         <v>4.2270000000000003</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AX9" s="4">
         <v>69.814999999999998</v>
       </c>
-      <c r="AY8" s="4">
+      <c r="AY9" s="4">
         <v>4.2009999999999996</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="AZ9" s="4">
         <v>69.03</v>
       </c>
-      <c r="BA8" s="4">
+      <c r="BA9" s="4">
         <v>4.2069999999999999</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BB9" s="4">
         <v>69.900000000000006</v>
       </c>
-      <c r="BC8" s="4">
+      <c r="BC9" s="4">
         <v>4.2910000000000004</v>
       </c>
-      <c r="BD8" s="4">
+      <c r="BD9" s="4">
         <v>71.168000000000006</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BE9" s="4">
         <v>4.3940000000000001</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BF9" s="4">
         <v>71.853999999999999</v>
       </c>
-      <c r="BG8" s="4">
+      <c r="BG9" s="4">
         <v>4.4400000000000004</v>
       </c>
-      <c r="BH8" s="4">
+      <c r="BH9" s="4">
         <v>72.7</v>
       </c>
-      <c r="BI8" s="4">
+      <c r="BI9" s="4">
         <v>4.4740000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>98.897999999999996</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C10" s="3">
         <v>3.3929999999999998</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="3">
         <v>97.619</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>3.41</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F10" s="3">
         <v>96.659000000000006</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G10" s="3">
         <v>3.4420000000000002</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H10" s="3">
         <v>96.724000000000004</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I10" s="3">
         <v>3.4140000000000001</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>95.456999999999994</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>3.468</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>95.56</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M10" s="3">
         <v>3.516</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N10" s="3">
         <v>95.606999999999999</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O10" s="3">
         <v>3.5449999999999999</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P10" s="3">
         <v>94.465999999999994</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q10" s="3">
         <v>3.601</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R10" s="3">
         <v>95.43</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S10" s="3">
         <v>3.6920000000000002</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T10" s="3">
         <v>94.793000000000006</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U10" s="3">
         <v>3.78</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V10" s="3">
         <v>92.600999999999999</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W10" s="3">
         <v>3.8820000000000001</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X10" s="3">
         <v>90.768000000000001</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y10" s="3">
         <v>3.923</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z10" s="3">
         <v>89.094999999999999</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA10" s="3">
         <v>3.9369999999999998</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB10" s="3">
         <v>86.677999999999997</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC10" s="3">
         <v>3.9390000000000001</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD10" s="3">
         <v>80.879000000000005</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE10" s="3">
         <v>4.0039999999999996</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF10" s="3">
         <v>78.728999999999999</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG10" s="3">
         <v>4.0350000000000001</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AH10" s="3">
         <v>75.691999999999993</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI10" s="3">
         <v>4.093</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ10" s="3">
         <v>73.066999999999993</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK10" s="3">
         <v>4.1529999999999996</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL10" s="3">
         <v>71.084000000000003</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM10" s="3">
         <v>4.1429999999999998</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN10" s="3">
         <v>69.376999999999995</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO10" s="3">
         <v>4.03</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP10" s="3">
         <v>67.231999999999999</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ10" s="3">
         <v>4.0750000000000002</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AR10" s="3">
         <v>65.7</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS10" s="3">
         <v>4.1289999999999996</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT10" s="3">
         <v>64.540999999999997</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU10" s="3">
         <v>4.1210000000000004</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AV10" s="3">
         <v>62.814999999999998</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="AW10" s="3">
         <v>4.1230000000000002</v>
       </c>
-      <c r="AX9" s="3">
+      <c r="AX10" s="3">
         <v>60.771000000000001</v>
       </c>
-      <c r="AY9" s="3">
+      <c r="AY10" s="3">
         <v>4.1390000000000002</v>
       </c>
-      <c r="AZ9" s="3">
+      <c r="AZ10" s="3">
         <v>61.473999999999997</v>
       </c>
-      <c r="BA9" s="3">
+      <c r="BA10" s="3">
         <v>4.1630000000000003</v>
       </c>
-      <c r="BB9" s="3">
+      <c r="BB10" s="3">
         <v>59.75</v>
       </c>
-      <c r="BC9" s="3">
+      <c r="BC10" s="3">
         <v>4.1879999999999997</v>
       </c>
-      <c r="BD9" s="3">
+      <c r="BD10" s="3">
         <v>60.405000000000001</v>
       </c>
-      <c r="BE9" s="3">
+      <c r="BE10" s="3">
         <v>4.2549999999999999</v>
       </c>
-      <c r="BF9" s="3">
+      <c r="BF10" s="3">
         <v>60.959000000000003</v>
       </c>
-      <c r="BG9" s="3">
+      <c r="BG10" s="3">
         <v>4.3079999999999998</v>
       </c>
-      <c r="BH9" s="3">
+      <c r="BH10" s="3">
         <v>62.27</v>
       </c>
-      <c r="BI9" s="3">
+      <c r="BI10" s="3">
         <v>4.3529999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>161.667</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="4">
         <v>3.5289999999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D11" s="4">
         <v>155.09299999999999</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="4">
         <v>3.657</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>147.61500000000001</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="4">
         <v>3.6949999999999998</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="4">
         <v>143.36500000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="4">
         <v>3.649</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J11" s="4">
         <v>138.893</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="4">
         <v>3.7040000000000002</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="4">
         <v>134.71100000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="4">
         <v>3.738</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="4">
         <v>131</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="4">
         <v>3.7559999999999998</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P11" s="4">
         <v>126.04</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="4">
         <v>3.8069999999999999</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R11" s="4">
         <v>121.303</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S11" s="4">
         <v>3.8679999999999999</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T11" s="4">
         <v>118.148</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U11" s="4">
         <v>3.9260000000000002</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V11" s="4">
         <v>114.759</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W11" s="4">
         <v>4.0170000000000003</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X11" s="4">
         <v>111.136</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y11" s="4">
         <v>4.069</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z11" s="4">
         <v>109.259</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA11" s="4">
         <v>4.0590000000000002</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB11" s="4">
         <v>107.072</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC11" s="4">
         <v>4.0330000000000004</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD11" s="4">
         <v>102.48699999999999</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AE11" s="4">
         <v>4.07</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF11" s="4">
         <v>100.39700000000001</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG11" s="4">
         <v>4.0960000000000001</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH11" s="4">
         <v>98.8</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI11" s="4">
         <v>4.226</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AJ11" s="4">
         <v>98.253</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AK11" s="4">
         <v>4.3339999999999996</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL11" s="4">
         <v>98.278000000000006</v>
       </c>
-      <c r="AM10" s="4">
+      <c r="AM11" s="4">
         <v>4.3769999999999998</v>
       </c>
-      <c r="AN10" s="4">
+      <c r="AN11" s="4">
         <v>98.873999999999995</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AO11" s="4">
         <v>4.1829999999999998</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AP11" s="4">
         <v>98.364999999999995</v>
       </c>
-      <c r="AQ10" s="4">
+      <c r="AQ11" s="4">
         <v>4.3250000000000002</v>
       </c>
-      <c r="AR10" s="4">
+      <c r="AR11" s="4">
         <v>96.748000000000005</v>
       </c>
-      <c r="AS10" s="4">
+      <c r="AS11" s="4">
         <v>4.4589999999999996</v>
       </c>
-      <c r="AT10" s="4">
+      <c r="AT11" s="4">
         <v>96.042000000000002</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="AU11" s="4">
         <v>4.4690000000000003</v>
       </c>
-      <c r="AV10" s="4">
+      <c r="AV11" s="4">
         <v>96.534999999999997</v>
       </c>
-      <c r="AW10" s="4">
+      <c r="AW11" s="4">
         <v>4.476</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AX11" s="4">
         <v>94.799000000000007</v>
       </c>
-      <c r="AY10" s="4">
+      <c r="AY11" s="4">
         <v>4.5419999999999998</v>
       </c>
-      <c r="AZ10" s="4">
+      <c r="AZ11" s="4">
         <v>96.992000000000004</v>
       </c>
-      <c r="BA10" s="4">
+      <c r="BA11" s="4">
         <v>4.5810000000000004</v>
       </c>
-      <c r="BB10" s="4">
+      <c r="BB11" s="4">
         <v>96.040999999999997</v>
       </c>
-      <c r="BC10" s="4">
+      <c r="BC11" s="4">
         <v>4.6440000000000001</v>
       </c>
-      <c r="BD10" s="4">
+      <c r="BD11" s="4">
         <v>95.286000000000001</v>
       </c>
-      <c r="BE10" s="4">
+      <c r="BE11" s="4">
         <v>4.72</v>
       </c>
-      <c r="BF10" s="4">
+      <c r="BF11" s="4">
         <v>95.668999999999997</v>
       </c>
-      <c r="BG10" s="4">
+      <c r="BG11" s="4">
         <v>4.7460000000000004</v>
       </c>
-      <c r="BH10" s="4">
+      <c r="BH11" s="4">
         <v>96.679000000000002</v>
       </c>
-      <c r="BI10" s="4">
+      <c r="BI11" s="4">
         <v>4.7489999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>247.13200000000001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="3">
         <v>2.427</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="3">
         <v>244.464</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>2.4750000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>243.17699999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>2.468</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>237.34100000000001</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>2.4089999999999998</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>234.994</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K12" s="3">
         <v>2.4289999999999998</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L12" s="3">
         <v>234.47300000000001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M12" s="3">
         <v>2.4540000000000002</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N12" s="3">
         <v>234.36199999999999</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O12" s="3">
         <v>2.6230000000000002</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P12" s="3">
         <v>232.89699999999999</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q12" s="3">
         <v>2.702</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R12" s="3">
         <v>235.94900000000001</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S12" s="3">
         <v>2.7719999999999998</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T12" s="3">
         <v>237.864</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U12" s="3">
         <v>2.8279999999999998</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V12" s="3">
         <v>237.483</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W12" s="3">
         <v>2.9049999999999998</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X12" s="3">
         <v>235.92400000000001</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y12" s="3">
         <v>2.99</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z12" s="3">
         <v>234.649</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA12" s="3">
         <v>3.073</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB12" s="3">
         <v>234.376</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC12" s="3">
         <v>3.206</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD12" s="3">
         <v>232.48599999999999</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE12" s="3">
         <v>3.331</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF12" s="3">
         <v>229.76400000000001</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG12" s="3">
         <v>3.35</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH12" s="3">
         <v>230.245</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI12" s="3">
         <v>3.51</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ12" s="3">
         <v>237.35499999999999</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK12" s="3">
         <v>3.6190000000000002</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL12" s="3">
         <v>234.91</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM12" s="3">
         <v>3.63</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN12" s="3">
         <v>234.86699999999999</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO12" s="3">
         <v>3.5249999999999999</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP12" s="3">
         <v>233.34800000000001</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ12" s="3">
         <v>3.387</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR12" s="3">
         <v>236.65899999999999</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AS12" s="3">
         <v>3.1230000000000002</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT12" s="3">
         <v>237.863</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU12" s="3">
         <v>2.9550000000000001</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV12" s="3">
         <v>230.4</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW12" s="3">
         <v>2.899</v>
       </c>
-      <c r="AX11" s="3">
+      <c r="AX12" s="3">
         <v>226.893</v>
       </c>
-      <c r="AY11" s="3">
+      <c r="AY12" s="3">
         <v>2.9239999999999999</v>
       </c>
-      <c r="AZ11" s="3">
+      <c r="AZ12" s="3">
         <v>229.749</v>
       </c>
-      <c r="BA11" s="3">
+      <c r="BA12" s="3">
         <v>2.923</v>
       </c>
-      <c r="BB11" s="3">
+      <c r="BB12" s="3">
         <v>230.16200000000001</v>
       </c>
-      <c r="BC11" s="3">
+      <c r="BC12" s="3">
         <v>2.9209999999999998</v>
       </c>
-      <c r="BD11" s="3">
+      <c r="BD12" s="3">
         <v>233.13</v>
       </c>
-      <c r="BE11" s="3">
+      <c r="BE12" s="3">
         <v>2.9609999999999999</v>
       </c>
-      <c r="BF11" s="3">
+      <c r="BF12" s="3">
         <v>242.755</v>
       </c>
-      <c r="BG11" s="3">
+      <c r="BG12" s="3">
         <v>3.0089999999999999</v>
       </c>
-      <c r="BH11" s="3">
+      <c r="BH12" s="3">
         <v>249.85599999999999</v>
       </c>
-      <c r="BI11" s="3">
+      <c r="BI12" s="3">
         <v>3.0649999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B13" s="4">
         <v>457.03100000000001</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="4">
         <v>1.827</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D13" s="4">
         <v>448.40800000000002</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="4">
         <v>1.7709999999999999</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="4">
         <v>459.822</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <v>1.722</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="4">
         <v>459.07299999999998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="4">
         <v>1.7130000000000001</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="4">
         <v>446.488</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="4">
         <v>1.7589999999999999</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="4">
         <v>440.90199999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M13" s="4">
         <v>1.784</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N13" s="4">
         <v>422.28800000000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="4">
         <v>1.788</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P13" s="4">
         <v>422.14100000000002</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q13" s="4">
         <v>1.8420000000000001</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R13" s="4">
         <v>430.94799999999998</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S13" s="4">
         <v>1.911</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T13" s="4">
         <v>435.59300000000002</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U13" s="4">
         <v>1.9690000000000001</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V13" s="4">
         <v>415.67599999999999</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W13" s="4">
         <v>2.0539999999999998</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X13" s="4">
         <v>406.19299999999998</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y13" s="4">
         <v>2.1339999999999999</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z13" s="4">
         <v>410.59199999999998</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA13" s="4">
         <v>2.23</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB13" s="4">
         <v>416.98700000000002</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC13" s="4">
         <v>2.3170000000000002</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD13" s="4">
         <v>413.83</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AE13" s="4">
         <v>2.423</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF13" s="4">
         <v>424.83699999999999</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG13" s="4">
         <v>2.5219999999999998</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH13" s="4">
         <v>415.47300000000001</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AI13" s="4">
         <v>2.621</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AJ13" s="4">
         <v>418.01100000000002</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AK13" s="4">
         <v>2.7719999999999998</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AL13" s="4">
         <v>403.392</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AM13" s="4">
         <v>2.802</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AN13" s="4">
         <v>403.36500000000001</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AO13" s="4">
         <v>2.6579999999999999</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AP13" s="4">
         <v>395.88799999999998</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="AQ13" s="4">
         <v>2.6890000000000001</v>
       </c>
-      <c r="AR12" s="4">
+      <c r="AR13" s="4">
         <v>390.322</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AS13" s="4">
         <v>2.7370000000000001</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="AT13" s="4">
         <v>384.38</v>
       </c>
-      <c r="AU12" s="4">
+      <c r="AU13" s="4">
         <v>2.5720000000000001</v>
       </c>
-      <c r="AV12" s="4">
+      <c r="AV13" s="4">
         <v>371.42399999999998</v>
       </c>
-      <c r="AW12" s="4">
+      <c r="AW13" s="4">
         <v>2.6219999999999999</v>
       </c>
-      <c r="AX12" s="4">
+      <c r="AX13" s="4">
         <v>370.46</v>
       </c>
-      <c r="AY12" s="4">
+      <c r="AY13" s="4">
         <v>2.8610000000000002</v>
       </c>
-      <c r="AZ12" s="4">
+      <c r="AZ13" s="4">
         <v>378.69499999999999</v>
       </c>
-      <c r="BA12" s="4">
+      <c r="BA13" s="4">
         <v>2.9540000000000002</v>
       </c>
-      <c r="BB12" s="4">
+      <c r="BB13" s="4">
         <v>367.43900000000002</v>
       </c>
-      <c r="BC12" s="4">
+      <c r="BC13" s="4">
         <v>3.0110000000000001</v>
       </c>
-      <c r="BD12" s="4">
+      <c r="BD13" s="4">
         <v>373.88400000000001</v>
       </c>
-      <c r="BE12" s="4">
+      <c r="BE13" s="4">
         <v>3.12</v>
       </c>
-      <c r="BF12" s="4">
+      <c r="BF13" s="4">
         <v>378.71699999999998</v>
       </c>
-      <c r="BG12" s="4">
+      <c r="BG13" s="4">
         <v>3.2610000000000001</v>
       </c>
-      <c r="BH12" s="4">
+      <c r="BH13" s="4">
         <v>371.77</v>
       </c>
-      <c r="BI12" s="4">
+      <c r="BI13" s="4">
         <v>3.3860000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <v>251.62100000000001</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>2.8260000000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>245.215</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>2.8660000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>239.72200000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>2.9340000000000002</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>237.61600000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>2.9849999999999999</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="4">
         <v>230.11099999999999</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="4">
         <v>3.1070000000000002</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="4">
         <v>229.01900000000001</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="4">
         <v>3.3260000000000001</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="4">
         <v>219.98599999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O14" s="4">
         <v>3.5</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P14" s="4">
         <v>212.25299999999999</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q14" s="4">
         <v>3.7789999999999999</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R14" s="4">
         <v>205.03</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S14" s="4">
         <v>4.008</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T14" s="4">
         <v>199.13300000000001</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U14" s="4">
         <v>4.3010000000000002</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V14" s="4">
         <v>186.77199999999999</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W14" s="4">
         <v>4.5709999999999997</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X14" s="4">
         <v>170.05799999999999</v>
       </c>
-      <c r="Y13" s="4">
+      <c r="Y14" s="4">
         <v>4.7060000000000004</v>
       </c>
-      <c r="Z13" s="4">
+      <c r="Z14" s="4">
         <v>157.905</v>
       </c>
-      <c r="AA13" s="4">
+      <c r="AA14" s="4">
         <v>4.8600000000000003</v>
       </c>
-      <c r="AB13" s="4">
+      <c r="AB14" s="4">
         <v>145.92400000000001</v>
       </c>
-      <c r="AC13" s="4">
+      <c r="AC14" s="4">
         <v>4.9039999999999999</v>
       </c>
-      <c r="AD13" s="4">
+      <c r="AD14" s="4">
         <v>136.04599999999999</v>
       </c>
-      <c r="AE13" s="4">
+      <c r="AE14" s="4">
         <v>5.0890000000000004</v>
       </c>
-      <c r="AF13" s="4">
+      <c r="AF14" s="4">
         <v>125.773</v>
       </c>
-      <c r="AG13" s="4">
+      <c r="AG14" s="4">
         <v>5.2359999999999998</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH14" s="4">
         <v>118.577</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI14" s="4">
         <v>5.351</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ14" s="4">
         <v>110.62</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK14" s="4">
         <v>5.4809999999999999</v>
       </c>
-      <c r="AL13" s="4">
+      <c r="AL14" s="4">
         <v>104.583</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AM14" s="4">
         <v>5.1980000000000004</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AN14" s="4">
         <v>100.164</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AO14" s="4">
         <v>4.9160000000000004</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AP14" s="4">
         <v>91.813999999999993</v>
       </c>
-      <c r="AQ13" s="4">
+      <c r="AQ14" s="4">
         <v>4.9329999999999998</v>
       </c>
-      <c r="AR13" s="4">
+      <c r="AR14" s="4">
         <v>92.087000000000003</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AS14" s="4">
         <v>4.9249999999999998</v>
       </c>
-      <c r="AT13" s="4">
+      <c r="AT14" s="4">
         <v>90.4</v>
       </c>
-      <c r="AU13" s="4">
+      <c r="AU14" s="4">
         <v>4.915</v>
       </c>
-      <c r="AV13" s="4">
+      <c r="AV14" s="4">
         <v>88.569000000000003</v>
       </c>
-      <c r="AW13" s="4">
+      <c r="AW14" s="4">
         <v>4.9569999999999999</v>
       </c>
-      <c r="AX13" s="4">
+      <c r="AX14" s="4">
         <v>86.644999999999996</v>
       </c>
-      <c r="AY13" s="4">
+      <c r="AY14" s="4">
         <v>5.2859999999999996</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="AZ14" s="4">
         <v>86.566000000000003</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BA14" s="4">
         <v>6.2990000000000004</v>
       </c>
-      <c r="BB13" s="4">
+      <c r="BB14" s="4">
         <v>85.728999999999999</v>
       </c>
-      <c r="BC13" s="4">
+      <c r="BC14" s="4">
         <v>6.3520000000000003</v>
       </c>
-      <c r="BD13" s="4">
+      <c r="BD14" s="4">
         <v>86.171000000000006</v>
       </c>
-      <c r="BE13" s="4">
+      <c r="BE14" s="4">
         <v>6.7460000000000004</v>
       </c>
-      <c r="BF13" s="4">
+      <c r="BF14" s="4">
         <v>87.418000000000006</v>
       </c>
-      <c r="BG13" s="4">
+      <c r="BG14" s="4">
         <v>7.1230000000000002</v>
       </c>
-      <c r="BH13" s="4">
+      <c r="BH14" s="4">
         <v>89.216999999999999</v>
       </c>
-      <c r="BI13" s="4">
+      <c r="BI14" s="4">
         <v>7.3609999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <v>198.68100000000001</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>3.4809999999999999</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>196.21799999999999</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>3.5219999999999998</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F15" s="3">
         <v>190.33099999999999</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>3.5430000000000001</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H15" s="3">
         <v>185.69399999999999</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <v>3.516</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <v>182.87200000000001</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K15" s="3">
         <v>3.5750000000000002</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L15" s="3">
         <v>179.268</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M15" s="3">
         <v>3.66</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N15" s="3">
         <v>176.35900000000001</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O15" s="3">
         <v>3.702</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P15" s="3">
         <v>174.07900000000001</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q15" s="3">
         <v>3.7650000000000001</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R15" s="3">
         <v>173.666</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S15" s="3">
         <v>3.8279999999999998</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T15" s="3">
         <v>170.05</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U15" s="3">
         <v>3.883</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V15" s="3">
         <v>165.476</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W15" s="3">
         <v>3.9980000000000002</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X15" s="3">
         <v>161.32300000000001</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y15" s="3">
         <v>4.05</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z15" s="3">
         <v>158.83600000000001</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA15" s="3">
         <v>4.04</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB15" s="3">
         <v>158.22399999999999</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC15" s="3">
         <v>4.0229999999999997</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD15" s="3">
         <v>150.22300000000001</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE15" s="3">
         <v>4.0469999999999997</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF15" s="3">
         <v>148.11699999999999</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG15" s="3">
         <v>4.0549999999999997</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH15" s="3">
         <v>145.80799999999999</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI15" s="3">
         <v>4.0990000000000002</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ15" s="3">
         <v>145.00800000000001</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK15" s="3">
         <v>4.1360000000000001</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL15" s="3">
         <v>144.52799999999999</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM15" s="3">
         <v>4.0940000000000003</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AN15" s="3">
         <v>143.71299999999999</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO15" s="3">
         <v>3.91</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP15" s="3">
         <v>140.88200000000001</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ15" s="3">
         <v>3.952</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AR15" s="3">
         <v>140.59800000000001</v>
       </c>
-      <c r="AS14" s="3">
+      <c r="AS15" s="3">
         <v>3.9609999999999999</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="AT15" s="3">
         <v>139.19900000000001</v>
       </c>
-      <c r="AU14" s="3">
+      <c r="AU15" s="3">
         <v>3.851</v>
       </c>
-      <c r="AV14" s="3">
+      <c r="AV15" s="3">
         <v>135.577</v>
       </c>
-      <c r="AW14" s="3">
+      <c r="AW15" s="3">
         <v>3.7789999999999999</v>
       </c>
-      <c r="AX14" s="3">
+      <c r="AX15" s="3">
         <v>133.02000000000001</v>
       </c>
-      <c r="AY14" s="3">
+      <c r="AY15" s="3">
         <v>3.7669999999999999</v>
       </c>
-      <c r="AZ14" s="3">
+      <c r="AZ15" s="3">
         <v>135.60400000000001</v>
       </c>
-      <c r="BA14" s="3">
+      <c r="BA15" s="3">
         <v>3.782</v>
       </c>
-      <c r="BB14" s="3">
+      <c r="BB15" s="3">
         <v>132.108</v>
       </c>
-      <c r="BC14" s="3">
+      <c r="BC15" s="3">
         <v>3.8170000000000002</v>
       </c>
-      <c r="BD14" s="3">
+      <c r="BD15" s="3">
         <v>133.02199999999999</v>
       </c>
-      <c r="BE14" s="3">
+      <c r="BE15" s="3">
         <v>3.867</v>
       </c>
-      <c r="BF14" s="3">
+      <c r="BF15" s="3">
         <v>135.83699999999999</v>
       </c>
-      <c r="BG14" s="3">
+      <c r="BG15" s="3">
         <v>3.899</v>
       </c>
-      <c r="BH14" s="3">
+      <c r="BH15" s="3">
         <v>138.44900000000001</v>
       </c>
-      <c r="BI14" s="3">
+      <c r="BI15" s="3">
         <v>3.9129999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>285.82900000000001</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>1.452</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D16" s="4">
         <v>290.673</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>1.389</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>303.19799999999998</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>1.325</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>343.81599999999997</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>1.1539999999999999</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J16" s="4">
         <v>376.16399999999999</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K16" s="4">
         <v>1.0409999999999999</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L16" s="4">
         <v>355.98399999999998</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M16" s="4">
         <v>1.0349999999999999</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N16" s="4">
         <v>309.44400000000002</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O16" s="4">
         <v>1.07</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P16" s="4">
         <v>300.59899999999999</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q16" s="4">
         <v>1.1659999999999999</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R16" s="4">
         <v>313.91300000000001</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S16" s="4">
         <v>1.242</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T16" s="4">
         <v>299.19900000000001</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U16" s="4">
         <v>1.284</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V16" s="4">
         <v>291.35599999999999</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W16" s="4">
         <v>1.361</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X16" s="4">
         <v>307.78300000000002</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y16" s="4">
         <v>1.452</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z16" s="4">
         <v>303.97800000000001</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA16" s="4">
         <v>1.56</v>
       </c>
-      <c r="AB15" s="4">
+      <c r="AB16" s="4">
         <v>303.83499999999998</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AC16" s="4">
         <v>1.696</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AD16" s="4">
         <v>300.26600000000002</v>
       </c>
-      <c r="AE15" s="4">
+      <c r="AE16" s="4">
         <v>1.8440000000000001</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AF16" s="4">
         <v>309.411</v>
       </c>
-      <c r="AG15" s="4">
+      <c r="AG16" s="4">
         <v>2.0430000000000001</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AH16" s="4">
         <v>324.09500000000003</v>
       </c>
-      <c r="AI15" s="4">
+      <c r="AI16" s="4">
         <v>2.2869999999999999</v>
       </c>
-      <c r="AJ15" s="4">
+      <c r="AJ16" s="4">
         <v>314.25799999999998</v>
       </c>
-      <c r="AK15" s="4">
+      <c r="AK16" s="4">
         <v>2.52</v>
       </c>
-      <c r="AL15" s="4">
+      <c r="AL16" s="4">
         <v>290.25599999999997</v>
       </c>
-      <c r="AM15" s="4">
+      <c r="AM16" s="4">
         <v>2.4710000000000001</v>
       </c>
-      <c r="AN15" s="4">
+      <c r="AN16" s="4">
         <v>277.88299999999998</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="AO16" s="4">
         <v>2.3340000000000001</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AP16" s="4">
         <v>273.38799999999998</v>
       </c>
-      <c r="AQ15" s="4">
+      <c r="AQ16" s="4">
         <v>2.1120000000000001</v>
       </c>
-      <c r="AR15" s="4">
+      <c r="AR16" s="4">
         <v>266.464</v>
       </c>
-      <c r="AS15" s="4">
+      <c r="AS16" s="4">
         <v>2.2589999999999999</v>
       </c>
-      <c r="AT15" s="4">
+      <c r="AT16" s="4">
         <v>261.09699999999998</v>
       </c>
-      <c r="AU15" s="4">
+      <c r="AU16" s="4">
         <v>2.5179999999999998</v>
       </c>
-      <c r="AV15" s="4">
+      <c r="AV16" s="4">
         <v>266.14400000000001</v>
       </c>
-      <c r="AW15" s="4">
+      <c r="AW16" s="4">
         <v>2.589</v>
       </c>
-      <c r="AX15" s="4">
+      <c r="AX16" s="4">
         <v>258.40499999999997</v>
       </c>
-      <c r="AY15" s="4">
+      <c r="AY16" s="4">
         <v>2.6360000000000001</v>
       </c>
-      <c r="AZ15" s="4">
+      <c r="AZ16" s="4">
         <v>254.078</v>
       </c>
-      <c r="BA15" s="4">
+      <c r="BA16" s="4">
         <v>2.7450000000000001</v>
       </c>
-      <c r="BB15" s="4">
+      <c r="BB16" s="4">
         <v>249.84899999999999</v>
       </c>
-      <c r="BC15" s="4">
+      <c r="BC16" s="4">
         <v>2.8239999999999998</v>
       </c>
-      <c r="BD15" s="4">
+      <c r="BD16" s="4">
         <v>251.09</v>
       </c>
-      <c r="BE15" s="4">
+      <c r="BE16" s="4">
         <v>2.9249999999999998</v>
       </c>
-      <c r="BF15" s="4">
+      <c r="BF16" s="4">
         <v>255.29</v>
       </c>
-      <c r="BG15" s="4">
+      <c r="BG16" s="4">
         <v>3.0470000000000002</v>
       </c>
-      <c r="BH15" s="4">
+      <c r="BH16" s="4">
         <v>259.91300000000001</v>
       </c>
-      <c r="BI15" s="4">
+      <c r="BI16" s="4">
         <v>3.125</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>208.761</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C17" s="3">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D17" s="3">
         <v>215.66800000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>0.91400000000000003</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>210.41499999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>0.97399999999999998</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>229.96</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>1.0349999999999999</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>234.78800000000001</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>1.095</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>227.59299999999999</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M17" s="3">
         <v>1.155</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N17" s="3">
         <v>212.292</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O17" s="3">
         <v>1.216</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P17" s="3">
         <v>200.89</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q17" s="3">
         <v>1.3140000000000001</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R17" s="3">
         <v>201.19499999999999</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S17" s="3">
         <v>1.411</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T17" s="3">
         <v>195.52199999999999</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U17" s="3">
         <v>1.4059999999999999</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V17" s="3">
         <v>192.339</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W17" s="3">
         <v>1.4630000000000001</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X17" s="3">
         <v>201.86500000000001</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y17" s="3">
         <v>1.56</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z17" s="3">
         <v>200.429</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA17" s="3">
         <v>1.6659999999999999</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB17" s="3">
         <v>202.76300000000001</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC17" s="3">
         <v>1.839</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD17" s="3">
         <v>203.05500000000001</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE17" s="3">
         <v>1.964</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF17" s="3">
         <v>216.44800000000001</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG17" s="3">
         <v>2.121</v>
       </c>
-      <c r="AH16" s="3">
+      <c r="AH17" s="3">
         <v>224.48599999999999</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI17" s="3">
         <v>2.2879999999999998</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AJ17" s="3">
         <v>230.50700000000001</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK17" s="3">
         <v>2.5459999999999998</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AL17" s="3">
         <v>223.58</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AM17" s="3">
         <v>2.6389999999999998</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AN17" s="3">
         <v>205.25299999999999</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO17" s="3">
         <v>2.3140000000000001</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AP17" s="3">
         <v>207.50899999999999</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ17" s="3">
         <v>2.3769999999999998</v>
       </c>
-      <c r="AR16" s="3">
+      <c r="AR17" s="3">
         <v>207.309</v>
       </c>
-      <c r="AS16" s="3">
+      <c r="AS17" s="3">
         <v>2.536</v>
       </c>
-      <c r="AT16" s="3">
+      <c r="AT17" s="3">
         <v>207.17599999999999</v>
       </c>
-      <c r="AU16" s="3">
+      <c r="AU17" s="3">
         <v>2.7829999999999999</v>
       </c>
-      <c r="AV16" s="3">
+      <c r="AV17" s="3">
         <v>211.59700000000001</v>
       </c>
-      <c r="AW16" s="3">
+      <c r="AW17" s="3">
         <v>2.8889999999999998</v>
       </c>
-      <c r="AX16" s="3">
+      <c r="AX17" s="3">
         <v>206.233</v>
       </c>
-      <c r="AY16" s="3">
+      <c r="AY17" s="3">
         <v>3.0009999999999999</v>
       </c>
-      <c r="AZ16" s="3">
+      <c r="AZ17" s="3">
         <v>212.40199999999999</v>
       </c>
-      <c r="BA16" s="3">
+      <c r="BA17" s="3">
         <v>3.0819999999999999</v>
       </c>
-      <c r="BB16" s="3">
+      <c r="BB17" s="3">
         <v>212.61799999999999</v>
       </c>
-      <c r="BC16" s="3">
+      <c r="BC17" s="3">
         <v>3.181</v>
       </c>
-      <c r="BD16" s="3">
+      <c r="BD17" s="3">
         <v>202.654</v>
       </c>
-      <c r="BE16" s="3">
+      <c r="BE17" s="3">
         <v>3.33</v>
       </c>
-      <c r="BF16" s="3">
+      <c r="BF17" s="3">
         <v>206.09700000000001</v>
       </c>
-      <c r="BG16" s="3">
+      <c r="BG17" s="3">
         <v>3.4780000000000002</v>
       </c>
-      <c r="BH16" s="3">
+      <c r="BH17" s="3">
         <v>208.417</v>
       </c>
-      <c r="BI16" s="3">
+      <c r="BI17" s="3">
         <v>3.641</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <v>190.30099999999999</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>5.7039999999999997</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D18" s="4">
         <v>184.28800000000001</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E18" s="4">
         <v>6.0369999999999999</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="4">
         <v>177.303</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>6.0620000000000003</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="4">
         <v>172.65</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I18" s="4">
         <v>6.1959999999999997</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J18" s="4">
         <v>166.17</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K18" s="4">
         <v>6.3129999999999997</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L18" s="4">
         <v>162.15899999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M18" s="4">
         <v>6.5330000000000004</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N18" s="4">
         <v>158.60300000000001</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O18" s="4">
         <v>6.5309999999999997</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P18" s="4">
         <v>153.821</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q18" s="4">
         <v>6.75</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R18" s="4">
         <v>149.583</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S18" s="4">
         <v>6.9960000000000004</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T18" s="4">
         <v>145.28800000000001</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U18" s="4">
         <v>7.3920000000000003</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V18" s="4">
         <v>141.74700000000001</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W18" s="4">
         <v>7.8049999999999997</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X18" s="4">
         <v>135.74600000000001</v>
       </c>
-      <c r="Y17" s="4">
+      <c r="Y18" s="4">
         <v>7.9029999999999996</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="Z18" s="4">
         <v>133.15199999999999</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA18" s="4">
         <v>8.0920000000000005</v>
       </c>
-      <c r="AB17" s="4">
+      <c r="AB18" s="4">
         <v>128.994</v>
       </c>
-      <c r="AC17" s="4">
+      <c r="AC18" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="AD17" s="4">
+      <c r="AD18" s="4">
         <v>126.20699999999999</v>
       </c>
-      <c r="AE17" s="4">
+      <c r="AE18" s="4">
         <v>8.3119999999999994</v>
       </c>
-      <c r="AF17" s="4">
+      <c r="AF18" s="4">
         <v>122.86499999999999</v>
       </c>
-      <c r="AG17" s="4">
+      <c r="AG18" s="4">
         <v>8.4329999999999998</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AH18" s="4">
         <v>118.19</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AI18" s="4">
         <v>8.6630000000000003</v>
       </c>
-      <c r="AJ17" s="4">
+      <c r="AJ18" s="4">
         <v>111.91800000000001</v>
       </c>
-      <c r="AK17" s="4">
+      <c r="AK18" s="4">
         <v>9.0920000000000005</v>
       </c>
-      <c r="AL17" s="4">
+      <c r="AL18" s="4">
         <v>106.28100000000001</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AM18" s="4">
         <v>8.843</v>
       </c>
-      <c r="AN17" s="4">
+      <c r="AN18" s="4">
         <v>103.19199999999999</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AO18" s="4">
         <v>8.3800000000000008</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="AP18" s="4">
         <v>100.208</v>
       </c>
-      <c r="AQ17" s="4">
+      <c r="AQ18" s="4">
         <v>8.5489999999999995</v>
       </c>
-      <c r="AR17" s="4">
+      <c r="AR18" s="4">
         <v>96.813999999999993</v>
       </c>
-      <c r="AS17" s="4">
+      <c r="AS18" s="4">
         <v>8.5679999999999996</v>
       </c>
-      <c r="AT17" s="4">
+      <c r="AT18" s="4">
         <v>93.852000000000004</v>
       </c>
-      <c r="AU17" s="4">
+      <c r="AU18" s="4">
         <v>8.3949999999999996</v>
       </c>
-      <c r="AV17" s="4">
+      <c r="AV18" s="4">
         <v>91.15</v>
       </c>
-      <c r="AW17" s="4">
+      <c r="AW18" s="4">
         <v>8.49</v>
       </c>
-      <c r="AX17" s="4">
+      <c r="AX18" s="4">
         <v>87.751000000000005</v>
       </c>
-      <c r="AY17" s="4">
+      <c r="AY18" s="4">
         <v>8.6289999999999996</v>
       </c>
-      <c r="AZ17" s="4">
+      <c r="AZ18" s="4">
         <v>84.769000000000005</v>
       </c>
-      <c r="BA17" s="4">
+      <c r="BA18" s="4">
         <v>8.7710000000000008</v>
       </c>
-      <c r="BB17" s="4">
+      <c r="BB18" s="4">
         <v>81.266999999999996</v>
       </c>
-      <c r="BC17" s="4">
+      <c r="BC18" s="4">
         <v>8.9329999999999998</v>
       </c>
-      <c r="BD17" s="4">
+      <c r="BD18" s="4">
         <v>81.542000000000002</v>
       </c>
-      <c r="BE17" s="4">
+      <c r="BE18" s="4">
         <v>8.9060000000000006</v>
       </c>
-      <c r="BF17" s="4">
+      <c r="BF18" s="4">
         <v>81.733999999999995</v>
       </c>
-      <c r="BG17" s="4">
+      <c r="BG18" s="4">
         <v>8.9779999999999998</v>
       </c>
-      <c r="BH17" s="4">
+      <c r="BH18" s="4">
         <v>82.173000000000002</v>
       </c>
-      <c r="BI17" s="4">
+      <c r="BI18" s="4">
         <v>9.0050000000000008</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>172.999</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C19" s="3">
         <v>1.92</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D19" s="3">
         <v>167.93899999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E19" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F19" s="3">
         <v>164.529</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G19" s="3">
         <v>2.1040000000000001</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>159.267</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I19" s="3">
         <v>2.1760000000000002</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J19" s="3">
         <v>154.23599999999999</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K19" s="3">
         <v>2.2450000000000001</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L19" s="3">
         <v>153.12299999999999</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M19" s="3">
         <v>2.3380000000000001</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N19" s="3">
         <v>152.53399999999999</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O19" s="3">
         <v>2.3809999999999998</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P19" s="3">
         <v>152.19300000000001</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q19" s="3">
         <v>2.3740000000000001</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R19" s="3">
         <v>148.90899999999999</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S19" s="3">
         <v>2.5640000000000001</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T19" s="3">
         <v>148.97399999999999</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U19" s="3">
         <v>2.4860000000000002</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V19" s="3">
         <v>147.16999999999999</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W19" s="3">
         <v>2.738</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X19" s="3">
         <v>146.25899999999999</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y19" s="3">
         <v>2.637</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z19" s="3">
         <v>145.65899999999999</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA19" s="3">
         <v>2.7879999999999998</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB19" s="3">
         <v>143.03800000000001</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC19" s="3">
         <v>2.8319999999999999</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD19" s="3">
         <v>138.749</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE19" s="3">
         <v>2.831</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF19" s="3">
         <v>135.751</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG19" s="3">
         <v>2.9060000000000001</v>
       </c>
-      <c r="AH18" s="3">
+      <c r="AH19" s="3">
         <v>132.08099999999999</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI19" s="3">
         <v>2.9390000000000001</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AJ19" s="3">
         <v>130.78</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK19" s="3">
         <v>3.0230000000000001</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AL19" s="3">
         <v>129.87799999999999</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM19" s="3">
         <v>3.0939999999999999</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AN19" s="3">
         <v>128.166</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AO19" s="3">
         <v>3.0209999999999999</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AP19" s="3">
         <v>126.265</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ19" s="3">
         <v>3.09</v>
       </c>
-      <c r="AR18" s="3">
+      <c r="AR19" s="3">
         <v>125.446</v>
       </c>
-      <c r="AS18" s="3">
+      <c r="AS19" s="3">
         <v>3.1040000000000001</v>
       </c>
-      <c r="AT18" s="3">
+      <c r="AT19" s="3">
         <v>123.95699999999999</v>
       </c>
-      <c r="AU18" s="3">
+      <c r="AU19" s="3">
         <v>3.149</v>
       </c>
-      <c r="AV18" s="3">
+      <c r="AV19" s="3">
         <v>121.53</v>
       </c>
-      <c r="AW18" s="3">
+      <c r="AW19" s="3">
         <v>3.2440000000000002</v>
       </c>
-      <c r="AX18" s="3">
+      <c r="AX19" s="3">
         <v>119.738</v>
       </c>
-      <c r="AY18" s="3">
+      <c r="AY19" s="3">
         <v>3.4489999999999998</v>
       </c>
-      <c r="AZ18" s="3">
+      <c r="AZ19" s="3">
         <v>116.589</v>
       </c>
-      <c r="BA18" s="3">
+      <c r="BA19" s="3">
         <v>3.7240000000000002</v>
       </c>
-      <c r="BB18" s="3">
+      <c r="BB19" s="3">
         <v>117.97799999999999</v>
       </c>
-      <c r="BC18" s="3">
+      <c r="BC19" s="3">
         <v>3.8780000000000001</v>
       </c>
-      <c r="BD18" s="3">
+      <c r="BD19" s="3">
         <v>118.916</v>
       </c>
-      <c r="BE18" s="3">
+      <c r="BE19" s="3">
         <v>4.0650000000000004</v>
       </c>
-      <c r="BF18" s="3">
+      <c r="BF19" s="3">
         <v>120.32</v>
       </c>
-      <c r="BG18" s="3">
+      <c r="BG19" s="3">
         <v>4.2919999999999998</v>
       </c>
-      <c r="BH18" s="3">
+      <c r="BH19" s="3">
         <v>122.467</v>
       </c>
-      <c r="BI18" s="3">
+      <c r="BI19" s="3">
         <v>4.4420000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>184.53700000000001</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>3.5289999999999999</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>178.464</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>3.5790000000000002</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>173.78399999999999</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>3.609</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>174.14</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>3.625</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>168.07400000000001</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <v>3.6909999999999998</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L20" s="3">
         <v>166.07599999999999</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <v>3.7639999999999998</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>164.34700000000001</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <v>3.85</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <v>160.869</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q20" s="3">
         <v>3.964</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R20" s="3">
         <v>159.36799999999999</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S20" s="3">
         <v>4.0919999999999996</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T20" s="3">
         <v>158.51400000000001</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U20" s="3">
         <v>4.2370000000000001</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V20" s="3">
         <v>155.48699999999999</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W20" s="3">
         <v>4.3579999999999997</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X20" s="3">
         <v>150.67099999999999</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y20" s="3">
         <v>4.4189999999999996</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z20" s="3">
         <v>146.774</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA20" s="3">
         <v>4.4059999999999997</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB20" s="3">
         <v>141.86699999999999</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC20" s="3">
         <v>4.3920000000000003</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD20" s="3">
         <v>133.696</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE20" s="3">
         <v>4.4429999999999996</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF20" s="3">
         <v>127.845</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG20" s="3">
         <v>4.4980000000000002</v>
       </c>
-      <c r="AH19" s="3">
+      <c r="AH20" s="3">
         <v>121.685</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI20" s="3">
         <v>4.6059999999999999</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ20" s="3">
         <v>115.65900000000001</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK20" s="3">
         <v>4.7290000000000001</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL20" s="3">
         <v>111.61499999999999</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM20" s="3">
         <v>4.7960000000000003</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN20" s="3">
         <v>107.65300000000001</v>
       </c>
-      <c r="AO19" s="3">
+      <c r="AO20" s="3">
         <v>4.6420000000000003</v>
       </c>
-      <c r="AP19" s="3">
+      <c r="AP20" s="3">
         <v>104.70099999999999</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AQ20" s="3">
         <v>4.6790000000000003</v>
       </c>
-      <c r="AR19" s="3">
+      <c r="AR20" s="3">
         <v>102.13500000000001</v>
       </c>
-      <c r="AS19" s="3">
+      <c r="AS20" s="3">
         <v>4.7249999999999996</v>
       </c>
-      <c r="AT19" s="3">
+      <c r="AT20" s="3">
         <v>101.003</v>
       </c>
-      <c r="AU19" s="3">
+      <c r="AU20" s="3">
         <v>4.6740000000000004</v>
       </c>
-      <c r="AV19" s="3">
+      <c r="AV20" s="3">
         <v>98.613</v>
       </c>
-      <c r="AW19" s="3">
+      <c r="AW20" s="3">
         <v>4.657</v>
       </c>
-      <c r="AX19" s="3">
+      <c r="AX20" s="3">
         <v>95.948999999999998</v>
       </c>
-      <c r="AY19" s="3">
+      <c r="AY20" s="3">
         <v>4.6989999999999998</v>
       </c>
-      <c r="AZ19" s="3">
+      <c r="AZ20" s="3">
         <v>97.266000000000005</v>
       </c>
-      <c r="BA19" s="3">
+      <c r="BA20" s="3">
         <v>4.7629999999999999</v>
       </c>
-      <c r="BB19" s="3">
+      <c r="BB20" s="3">
         <v>98.433999999999997</v>
       </c>
-      <c r="BC19" s="3">
+      <c r="BC20" s="3">
         <v>4.8360000000000003</v>
       </c>
-      <c r="BD19" s="3">
+      <c r="BD20" s="3">
         <v>100.688</v>
       </c>
-      <c r="BE19" s="3">
+      <c r="BE20" s="3">
         <v>4.9390000000000001</v>
       </c>
-      <c r="BF19" s="3">
+      <c r="BF20" s="3">
         <v>102.85299999999999</v>
       </c>
-      <c r="BG19" s="3">
+      <c r="BG20" s="3">
         <v>5.0229999999999997</v>
       </c>
-      <c r="BH19" s="3">
+      <c r="BH20" s="3">
         <v>105.218</v>
       </c>
-      <c r="BI19" s="3">
+      <c r="BI20" s="3">
         <v>5.0819999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>304.52</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>1.256</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>311.47800000000001</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>1.173</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>299.23099999999999</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>1.196</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>283.94099999999997</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>1.2330000000000001</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>277.70100000000002</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K21" s="3">
         <v>1.2889999999999999</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L21" s="3">
         <v>275.01400000000001</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M21" s="3">
         <v>1.367</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N21" s="3">
         <v>264.947</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O21" s="3">
         <v>1.44</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P21" s="3">
         <v>259.12200000000001</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q21" s="3">
         <v>1.5229999999999999</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R21" s="3">
         <v>248.905</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S21" s="3">
         <v>1.585</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T21" s="3">
         <v>246.53899999999999</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U21" s="3">
         <v>1.651</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V21" s="3">
         <v>232.631</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W21" s="3">
         <v>1.72</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X21" s="3">
         <v>225.614</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y21" s="3">
         <v>1.74</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z21" s="3">
         <v>220.32900000000001</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA21" s="3">
         <v>1.774</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB21" s="3">
         <v>218.58600000000001</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC21" s="3">
         <v>1.831</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD21" s="3">
         <v>219.316</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE21" s="3">
         <v>1.915</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF21" s="3">
         <v>219.23099999999999</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG21" s="3">
         <v>1.9770000000000001</v>
       </c>
-      <c r="AH20" s="3">
+      <c r="AH21" s="3">
         <v>219.21</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI21" s="3">
         <v>2.0859999999999999</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ21" s="3">
         <v>218.87700000000001</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK21" s="3">
         <v>2.2189999999999999</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AL21" s="3">
         <v>215.56</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM21" s="3">
         <v>2.302</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN21" s="3">
         <v>212.637</v>
       </c>
-      <c r="AO20" s="3">
+      <c r="AO21" s="3">
         <v>2.5</v>
       </c>
-      <c r="AP20" s="3">
+      <c r="AP21" s="3">
         <v>204.779</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AQ21" s="3">
         <v>2.5760000000000001</v>
       </c>
-      <c r="AR20" s="3">
+      <c r="AR21" s="3">
         <v>202.06899999999999</v>
       </c>
-      <c r="AS20" s="3">
+      <c r="AS21" s="3">
         <v>2.6760000000000002</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AT21" s="3">
         <v>202.755</v>
       </c>
-      <c r="AU20" s="3">
+      <c r="AU21" s="3">
         <v>2.7080000000000002</v>
       </c>
-      <c r="AV20" s="3">
+      <c r="AV21" s="3">
         <v>199.62100000000001</v>
       </c>
-      <c r="AW20" s="3">
+      <c r="AW21" s="3">
         <v>2.7360000000000002</v>
       </c>
-      <c r="AX20" s="3">
+      <c r="AX21" s="3">
         <v>193.56100000000001</v>
       </c>
-      <c r="AY20" s="3">
+      <c r="AY21" s="3">
         <v>2.8130000000000002</v>
       </c>
-      <c r="AZ20" s="3">
+      <c r="AZ21" s="3">
         <v>197.91399999999999</v>
       </c>
-      <c r="BA20" s="3">
+      <c r="BA21" s="3">
         <v>2.9119999999999999</v>
       </c>
-      <c r="BB20" s="3">
+      <c r="BB21" s="3">
         <v>195.84899999999999</v>
       </c>
-      <c r="BC20" s="3">
+      <c r="BC21" s="3">
         <v>2.988</v>
       </c>
-      <c r="BD20" s="3">
+      <c r="BD21" s="3">
         <v>197.08799999999999</v>
       </c>
-      <c r="BE20" s="3">
+      <c r="BE21" s="3">
         <v>3.105</v>
       </c>
-      <c r="BF20" s="3">
+      <c r="BF21" s="3">
         <v>201.035</v>
       </c>
-      <c r="BG20" s="3">
+      <c r="BG21" s="3">
         <v>3.2389999999999999</v>
       </c>
-      <c r="BH20" s="3">
+      <c r="BH21" s="3">
         <v>205.20400000000001</v>
       </c>
-      <c r="BI20" s="3">
+      <c r="BI21" s="3">
         <v>3.359</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>227.93799999999999</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>2.4049999999999998</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>230.11500000000001</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>2.4940000000000002</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>226.59399999999999</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>2.5110000000000001</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="4">
         <v>228.99299999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I22" s="4">
         <v>2.4540000000000002</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J22" s="4">
         <v>220.77799999999999</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K22" s="4">
         <v>2.5950000000000002</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L22" s="4">
         <v>222.99100000000001</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M22" s="4">
         <v>2.673</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N22" s="4">
         <v>225.65700000000001</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O22" s="4">
         <v>2.7389999999999999</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P22" s="4">
         <v>223.97900000000001</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q22" s="4">
         <v>2.8260000000000001</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R22" s="4">
         <v>224.053</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S22" s="4">
         <v>2.9249999999999998</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T22" s="4">
         <v>224.59</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U22" s="4">
         <v>3.0059999999999998</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V22" s="4">
         <v>218.11600000000001</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W22" s="4">
         <v>3.0870000000000002</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X22" s="4">
         <v>212.803</v>
       </c>
-      <c r="Y21" s="4">
+      <c r="Y22" s="4">
         <v>3.125</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="Z22" s="4">
         <v>208.44300000000001</v>
       </c>
-      <c r="AA21" s="4">
+      <c r="AA22" s="4">
         <v>3.133</v>
       </c>
-      <c r="AB21" s="4">
+      <c r="AB22" s="4">
         <v>203.63499999999999</v>
       </c>
-      <c r="AC21" s="4">
+      <c r="AC22" s="4">
         <v>3.0990000000000002</v>
       </c>
-      <c r="AD21" s="4">
+      <c r="AD22" s="4">
         <v>191.761</v>
       </c>
-      <c r="AE21" s="4">
+      <c r="AE22" s="4">
         <v>3.1339999999999999</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF22" s="4">
         <v>186.99600000000001</v>
       </c>
-      <c r="AG21" s="4">
+      <c r="AG22" s="4">
         <v>3.1440000000000001</v>
       </c>
-      <c r="AH21" s="4">
+      <c r="AH22" s="4">
         <v>180.40700000000001</v>
       </c>
-      <c r="AI21" s="4">
+      <c r="AI22" s="4">
         <v>3.177</v>
       </c>
-      <c r="AJ21" s="4">
+      <c r="AJ22" s="4">
         <v>176.001</v>
       </c>
-      <c r="AK21" s="4">
+      <c r="AK22" s="4">
         <v>3.2330000000000001</v>
       </c>
-      <c r="AL21" s="4">
+      <c r="AL22" s="4">
         <v>171.26599999999999</v>
       </c>
-      <c r="AM21" s="4">
+      <c r="AM22" s="4">
         <v>3.2360000000000002</v>
       </c>
-      <c r="AN21" s="4">
+      <c r="AN22" s="4">
         <v>167.607</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AO22" s="4">
         <v>3.153</v>
       </c>
-      <c r="AP21" s="4">
+      <c r="AP22" s="4">
         <v>163.416</v>
       </c>
-      <c r="AQ21" s="4">
+      <c r="AQ22" s="4">
         <v>3.198</v>
       </c>
-      <c r="AR21" s="4">
+      <c r="AR22" s="4">
         <v>160.94300000000001</v>
       </c>
-      <c r="AS21" s="4">
+      <c r="AS22" s="4">
         <v>3.161</v>
       </c>
-      <c r="AT21" s="4">
+      <c r="AT22" s="4">
         <v>159.99799999999999</v>
       </c>
-      <c r="AU21" s="4">
+      <c r="AU22" s="4">
         <v>3.0680000000000001</v>
       </c>
-      <c r="AV21" s="4">
+      <c r="AV22" s="4">
         <v>158.27099999999999</v>
       </c>
-      <c r="AW21" s="4">
+      <c r="AW22" s="4">
         <v>3.0579999999999998</v>
       </c>
-      <c r="AX21" s="4">
+      <c r="AX22" s="4">
         <v>156.822</v>
       </c>
-      <c r="AY21" s="4">
+      <c r="AY22" s="4">
         <v>3.09</v>
       </c>
-      <c r="AZ21" s="4">
+      <c r="AZ22" s="4">
         <v>157.19900000000001</v>
       </c>
-      <c r="BA21" s="4">
+      <c r="BA22" s="4">
         <v>3.1459999999999999</v>
       </c>
-      <c r="BB21" s="4">
+      <c r="BB22" s="4">
         <v>160.27699999999999</v>
       </c>
-      <c r="BC21" s="4">
+      <c r="BC22" s="4">
         <v>3.2080000000000002</v>
       </c>
-      <c r="BD21" s="4">
+      <c r="BD22" s="4">
         <v>163.69399999999999</v>
       </c>
-      <c r="BE21" s="4">
+      <c r="BE22" s="4">
         <v>3.3069999999999999</v>
       </c>
-      <c r="BF21" s="4">
+      <c r="BF22" s="4">
         <v>167.46899999999999</v>
       </c>
-      <c r="BG21" s="4">
+      <c r="BG22" s="4">
         <v>3.391</v>
       </c>
-      <c r="BH21" s="4">
+      <c r="BH22" s="4">
         <v>173.07400000000001</v>
       </c>
-      <c r="BI21" s="4">
+      <c r="BI22" s="4">
         <v>3.4590000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B23" s="3">
         <v>331.39400000000001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
         <v>2.3610000000000002</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>313.827</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E23" s="3">
         <v>2.1120000000000001</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F23" s="3">
         <v>303.88099999999997</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G23" s="3">
         <v>2.101</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H23" s="3">
         <v>288.714</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I23" s="3">
         <v>2.101</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J23" s="3">
         <v>282.70699999999999</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K23" s="3">
         <v>2.1560000000000001</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L23" s="3">
         <v>281.56599999999997</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M23" s="3">
         <v>2.2690000000000001</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N23" s="3">
         <v>267.61399999999998</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O23" s="3">
         <v>2.3580000000000001</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P23" s="3">
         <v>262.35500000000002</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q23" s="3">
         <v>2.3490000000000002</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R23" s="3">
         <v>246.55099999999999</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S23" s="3">
         <v>2.3450000000000002</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T23" s="3">
         <v>240.01300000000001</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U23" s="3">
         <v>2.3769999999999998</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V23" s="3">
         <v>237.50700000000001</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W23" s="3">
         <v>2.4660000000000002</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X23" s="3">
         <v>234.35599999999999</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y23" s="3">
         <v>2.5379999999999998</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z23" s="3">
         <v>230.65799999999999</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA23" s="3">
         <v>2.5779999999999998</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB23" s="3">
         <v>235.37799999999999</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC23" s="3">
         <v>2.6640000000000001</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD23" s="3">
         <v>227.209</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE23" s="3">
         <v>2.7789999999999999</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF23" s="3">
         <v>226.63200000000001</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG23" s="3">
         <v>2.9390000000000001</v>
       </c>
-      <c r="AH22" s="3">
+      <c r="AH23" s="3">
         <v>218.89599999999999</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI23" s="3">
         <v>3.1829999999999998</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AJ23" s="3">
         <v>218.78100000000001</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AK23" s="3">
         <v>3.3090000000000002</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AL23" s="3">
         <v>219.96199999999999</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AM23" s="3">
         <v>3.3620000000000001</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN23" s="3">
         <v>219.39599999999999</v>
       </c>
-      <c r="AO22" s="3">
+      <c r="AO23" s="3">
         <v>3.2210000000000001</v>
       </c>
-      <c r="AP22" s="3">
+      <c r="AP23" s="3">
         <v>219.10599999999999</v>
       </c>
-      <c r="AQ22" s="3">
+      <c r="AQ23" s="3">
         <v>3.2709999999999999</v>
       </c>
-      <c r="AR22" s="3">
+      <c r="AR23" s="3">
         <v>219.98400000000001</v>
       </c>
-      <c r="AS22" s="3">
+      <c r="AS23" s="3">
         <v>3.31</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AT23" s="3">
         <v>218.98500000000001</v>
       </c>
-      <c r="AU22" s="3">
+      <c r="AU23" s="3">
         <v>3.2850000000000001</v>
       </c>
-      <c r="AV22" s="3">
+      <c r="AV23" s="3">
         <v>218.62899999999999</v>
       </c>
-      <c r="AW22" s="3">
+      <c r="AW23" s="3">
         <v>3.2829999999999999</v>
       </c>
-      <c r="AX22" s="3">
+      <c r="AX23" s="3">
         <v>213.77699999999999</v>
       </c>
-      <c r="AY22" s="3">
+      <c r="AY23" s="3">
         <v>3.3410000000000002</v>
       </c>
-      <c r="AZ22" s="3">
+      <c r="AZ23" s="3">
         <v>217.59800000000001</v>
       </c>
-      <c r="BA22" s="3">
+      <c r="BA23" s="3">
         <v>3.4820000000000002</v>
       </c>
-      <c r="BB22" s="3">
+      <c r="BB23" s="3">
         <v>216.886</v>
       </c>
-      <c r="BC22" s="3">
+      <c r="BC23" s="3">
         <v>3.5470000000000002</v>
       </c>
-      <c r="BD22" s="3">
+      <c r="BD23" s="3">
         <v>218.89</v>
       </c>
-      <c r="BE22" s="3">
+      <c r="BE23" s="3">
         <v>3.6869999999999998</v>
       </c>
-      <c r="BF22" s="3">
+      <c r="BF23" s="3">
         <v>222.90299999999999</v>
       </c>
-      <c r="BG22" s="3">
+      <c r="BG23" s="3">
         <v>3.774</v>
       </c>
-      <c r="BH22" s="3">
+      <c r="BH23" s="3">
         <v>223.59700000000001</v>
       </c>
-      <c r="BI22" s="3">
+      <c r="BI23" s="3">
         <v>3.8370000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>346.608</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>1.536</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="4">
         <v>341.23700000000002</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>1.472</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F24" s="4">
         <v>356.822</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G24" s="4">
         <v>1.2909999999999999</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>360.28899999999999</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I24" s="4">
         <v>1.1890000000000001</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J24" s="4">
         <v>365.11700000000002</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K24" s="4">
         <v>1.212</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L24" s="4">
         <v>377.25700000000001</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M24" s="4">
         <v>1.262</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N24" s="4">
         <v>395.48399999999998</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O24" s="4">
         <v>1.3140000000000001</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P24" s="4">
         <v>395.48399999999998</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q24" s="4">
         <v>1.2649999999999999</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R24" s="4">
         <v>380.59399999999999</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S24" s="4">
         <v>1.25</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T24" s="4">
         <v>364.53500000000003</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U24" s="4">
         <v>1.2549999999999999</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V24" s="4">
         <v>355.50799999999998</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W24" s="4">
         <v>1.2909999999999999</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X24" s="4">
         <v>362.86200000000002</v>
       </c>
-      <c r="Y23" s="4">
+      <c r="Y24" s="4">
         <v>1.359</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="Z24" s="4">
         <v>371.64499999999998</v>
       </c>
-      <c r="AA23" s="4">
+      <c r="AA24" s="4">
         <v>1.4370000000000001</v>
       </c>
-      <c r="AB23" s="4">
+      <c r="AB24" s="4">
         <v>370.60399999999998</v>
       </c>
-      <c r="AC23" s="4">
+      <c r="AC24" s="4">
         <v>1.4750000000000001</v>
       </c>
-      <c r="AD23" s="4">
+      <c r="AD24" s="4">
         <v>360.23399999999998</v>
       </c>
-      <c r="AE23" s="4">
+      <c r="AE24" s="4">
         <v>1.623</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF24" s="4">
         <v>360.31099999999998</v>
       </c>
-      <c r="AG23" s="4">
+      <c r="AG24" s="4">
         <v>1.702</v>
       </c>
-      <c r="AH23" s="4">
+      <c r="AH24" s="4">
         <v>351.61099999999999</v>
       </c>
-      <c r="AI23" s="4">
+      <c r="AI24" s="4">
         <v>1.839</v>
       </c>
-      <c r="AJ23" s="4">
+      <c r="AJ24" s="4">
         <v>341.24599999999998</v>
       </c>
-      <c r="AK23" s="4">
+      <c r="AK24" s="4">
         <v>1.9750000000000001</v>
       </c>
-      <c r="AL23" s="4">
+      <c r="AL24" s="4">
         <v>341.67700000000002</v>
       </c>
-      <c r="AM23" s="4">
+      <c r="AM24" s="4">
         <v>2.1589999999999998</v>
       </c>
-      <c r="AN23" s="4">
+      <c r="AN24" s="4">
         <v>342.38299999999998</v>
       </c>
-      <c r="AO23" s="4">
+      <c r="AO24" s="4">
         <v>2.0680000000000001</v>
       </c>
-      <c r="AP23" s="4">
+      <c r="AP24" s="4">
         <v>339.66199999999998</v>
       </c>
-      <c r="AQ23" s="4">
+      <c r="AQ24" s="4">
         <v>2.0099999999999998</v>
       </c>
-      <c r="AR23" s="4">
+      <c r="AR24" s="4">
         <v>320.91800000000001</v>
       </c>
-      <c r="AS23" s="4">
+      <c r="AS24" s="4">
         <v>2.0569999999999999</v>
       </c>
-      <c r="AT23" s="4">
+      <c r="AT24" s="4">
         <v>320.95999999999998</v>
       </c>
-      <c r="AU23" s="4">
+      <c r="AU24" s="4">
         <v>2.105</v>
       </c>
-      <c r="AV23" s="4">
+      <c r="AV24" s="4">
         <v>306.815</v>
       </c>
-      <c r="AW23" s="4">
+      <c r="AW24" s="4">
         <v>2.1850000000000001</v>
       </c>
-      <c r="AX23" s="4">
+      <c r="AX24" s="4">
         <v>314.91800000000001</v>
       </c>
-      <c r="AY23" s="4">
+      <c r="AY24" s="4">
         <v>2.266</v>
       </c>
-      <c r="AZ23" s="4">
+      <c r="AZ24" s="4">
         <v>312.77600000000001</v>
       </c>
-      <c r="BA23" s="4">
+      <c r="BA24" s="4">
         <v>2.3370000000000002</v>
       </c>
-      <c r="BB23" s="4">
+      <c r="BB24" s="4">
         <v>311.62700000000001</v>
       </c>
-      <c r="BC23" s="4">
+      <c r="BC24" s="4">
         <v>2.4500000000000002</v>
       </c>
-      <c r="BD23" s="4">
+      <c r="BD24" s="4">
         <v>313.19900000000001</v>
       </c>
-      <c r="BE23" s="4">
+      <c r="BE24" s="4">
         <v>2.6280000000000001</v>
       </c>
-      <c r="BF23" s="4">
+      <c r="BF24" s="4">
         <v>317.10399999999998</v>
       </c>
-      <c r="BG23" s="4">
+      <c r="BG24" s="4">
         <v>2.7530000000000001</v>
       </c>
-      <c r="BH23" s="4">
+      <c r="BH24" s="4">
         <v>322.238</v>
       </c>
-      <c r="BI23" s="4">
+      <c r="BI24" s="4">
         <v>3.0379999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B25" s="3">
         <v>359.57600000000002</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C25" s="3">
         <v>1.6459999999999999</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D25" s="3">
         <v>343.52600000000001</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E25" s="3">
         <v>1.6</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F25" s="3">
         <v>325.40300000000002</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G25" s="3">
         <v>1.367</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="3">
         <v>308.29700000000003</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I25" s="3">
         <v>1.3859999999999999</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J25" s="3">
         <v>292.08499999999998</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K25" s="3">
         <v>1.46</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L25" s="3">
         <v>290.315</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M25" s="3">
         <v>1.5329999999999999</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N25" s="3">
         <v>276.54700000000003</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O25" s="3">
         <v>1.621</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P25" s="3">
         <v>281.11900000000003</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q25" s="3">
         <v>1.706</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R25" s="3">
         <v>276.04199999999997</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S25" s="3">
         <v>1.7669999999999999</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T25" s="3">
         <v>270.11399999999998</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U25" s="3">
         <v>1.7649999999999999</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V25" s="3">
         <v>261.20499999999998</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W25" s="3">
         <v>1.7829999999999999</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X25" s="3">
         <v>261.17399999999998</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y25" s="3">
         <v>1.8340000000000001</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z25" s="3">
         <v>259.16699999999997</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA25" s="3">
         <v>1.909</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB25" s="3">
         <v>261.63400000000001</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC25" s="3">
         <v>2.0030000000000001</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD25" s="3">
         <v>259.51900000000001</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE25" s="3">
         <v>2.0979999999999999</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF25" s="3">
         <v>266.33600000000001</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG25" s="3">
         <v>2.2229999999999999</v>
       </c>
-      <c r="AH24" s="3">
+      <c r="AH25" s="3">
         <v>264.10599999999999</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI25" s="3">
         <v>2.3919999999999999</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ25" s="3">
         <v>267.14100000000002</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK25" s="3">
         <v>2.7330000000000001</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AL25" s="3">
         <v>258.55700000000002</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AM25" s="3">
         <v>2.8540000000000001</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AN25" s="3">
         <v>254.27799999999999</v>
       </c>
-      <c r="AO24" s="3">
+      <c r="AO25" s="3">
         <v>2.7280000000000002</v>
       </c>
-      <c r="AP24" s="3">
+      <c r="AP25" s="3">
         <v>244.37700000000001</v>
       </c>
-      <c r="AQ24" s="3">
+      <c r="AQ25" s="3">
         <v>2.8540000000000001</v>
       </c>
-      <c r="AR24" s="3">
+      <c r="AR25" s="3">
         <v>241.69300000000001</v>
       </c>
-      <c r="AS24" s="3">
+      <c r="AS25" s="3">
         <v>2.9159999999999999</v>
       </c>
-      <c r="AT24" s="3">
+      <c r="AT25" s="3">
         <v>234.11500000000001</v>
       </c>
-      <c r="AU24" s="3">
+      <c r="AU25" s="3">
         <v>2.9580000000000002</v>
       </c>
-      <c r="AV24" s="3">
+      <c r="AV25" s="3">
         <v>228.27600000000001</v>
       </c>
-      <c r="AW24" s="3">
+      <c r="AW25" s="3">
         <v>2.9710000000000001</v>
       </c>
-      <c r="AX24" s="3">
+      <c r="AX25" s="3">
         <v>224.34899999999999</v>
       </c>
-      <c r="AY24" s="3">
+      <c r="AY25" s="3">
         <v>3.03</v>
       </c>
-      <c r="AZ24" s="3">
+      <c r="AZ25" s="3">
         <v>231.577</v>
       </c>
-      <c r="BA24" s="3">
+      <c r="BA25" s="3">
         <v>3.1429999999999998</v>
       </c>
-      <c r="BB24" s="3">
+      <c r="BB25" s="3">
         <v>225.19499999999999</v>
       </c>
-      <c r="BC24" s="3">
+      <c r="BC25" s="3">
         <v>3.194</v>
       </c>
-      <c r="BD24" s="3">
+      <c r="BD25" s="3">
         <v>228.53200000000001</v>
       </c>
-      <c r="BE24" s="3">
+      <c r="BE25" s="3">
         <v>3.2679999999999998</v>
       </c>
-      <c r="BF24" s="3">
+      <c r="BF25" s="3">
         <v>230.99199999999999</v>
       </c>
-      <c r="BG24" s="3">
+      <c r="BG25" s="3">
         <v>3.3639999999999999</v>
       </c>
-      <c r="BH24" s="3">
+      <c r="BH25" s="3">
         <v>234.738</v>
       </c>
-      <c r="BI24" s="3">
+      <c r="BI25" s="3">
         <v>3.4239999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <v>219.56899999999999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C26" s="4">
         <v>2.1859999999999999</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D26" s="4">
         <v>216.52799999999999</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E26" s="4">
         <v>2.0089999999999999</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F26" s="4">
         <v>214.19499999999999</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G26" s="4">
         <v>1.9119999999999999</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H26" s="4">
         <v>212.702</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I26" s="4">
         <v>1.9650000000000001</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J26" s="4">
         <v>210.72399999999999</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K26" s="4">
         <v>2.0640000000000001</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L26" s="4">
         <v>209.26300000000001</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M26" s="4">
         <v>2.1440000000000001</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N26" s="4">
         <v>207.16900000000001</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O26" s="4">
         <v>2.2080000000000002</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P26" s="4">
         <v>207.273</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q26" s="4">
         <v>2.431</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R26" s="4">
         <v>204.56800000000001</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S26" s="4">
         <v>2.4950000000000001</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T26" s="4">
         <v>198.852</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U26" s="4">
         <v>2.6</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V26" s="4">
         <v>191.429</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W26" s="4">
         <v>2.6760000000000002</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X26" s="4">
         <v>192.756</v>
       </c>
-      <c r="Y25" s="4">
+      <c r="Y26" s="4">
         <v>2.7450000000000001</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="Z26" s="4">
         <v>186.63900000000001</v>
       </c>
-      <c r="AA25" s="4">
+      <c r="AA26" s="4">
         <v>2.8220000000000001</v>
       </c>
-      <c r="AB25" s="4">
+      <c r="AB26" s="4">
         <v>188.464</v>
       </c>
-      <c r="AC25" s="4">
+      <c r="AC26" s="4">
         <v>2.8879999999999999</v>
       </c>
-      <c r="AD25" s="4">
+      <c r="AD26" s="4">
         <v>183.495</v>
       </c>
-      <c r="AE25" s="4">
+      <c r="AE26" s="4">
         <v>2.9860000000000002</v>
       </c>
-      <c r="AF25" s="4">
+      <c r="AF26" s="4">
         <v>173.40799999999999</v>
       </c>
-      <c r="AG25" s="4">
+      <c r="AG26" s="4">
         <v>3.07</v>
       </c>
-      <c r="AH25" s="4">
+      <c r="AH26" s="4">
         <v>171.351</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AI26" s="4">
         <v>3.2010000000000001</v>
       </c>
-      <c r="AJ25" s="4">
+      <c r="AJ26" s="4">
         <v>167.10900000000001</v>
       </c>
-      <c r="AK25" s="4">
+      <c r="AK26" s="4">
         <v>3.3650000000000002</v>
       </c>
-      <c r="AL25" s="4">
+      <c r="AL26" s="4">
         <v>162.655</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AM26" s="4">
         <v>3.4449999999999998</v>
       </c>
-      <c r="AN25" s="4">
+      <c r="AN26" s="4">
         <v>159.63800000000001</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AO26" s="4">
         <v>3.2210000000000001</v>
       </c>
-      <c r="AP25" s="4">
+      <c r="AP26" s="4">
         <v>158.721</v>
       </c>
-      <c r="AQ25" s="4">
+      <c r="AQ26" s="4">
         <v>3.2440000000000002</v>
       </c>
-      <c r="AR25" s="4">
+      <c r="AR26" s="4">
         <v>157.35400000000001</v>
       </c>
-      <c r="AS25" s="4">
+      <c r="AS26" s="4">
         <v>3.2559999999999998</v>
       </c>
-      <c r="AT25" s="4">
+      <c r="AT26" s="4">
         <v>159.54300000000001</v>
       </c>
-      <c r="AU25" s="4">
+      <c r="AU26" s="4">
         <v>3.1789999999999998</v>
       </c>
-      <c r="AV25" s="4">
+      <c r="AV26" s="4">
         <v>157.03</v>
       </c>
-      <c r="AW25" s="4">
+      <c r="AW26" s="4">
         <v>3.1459999999999999</v>
       </c>
-      <c r="AX25" s="4">
+      <c r="AX26" s="4">
         <v>148.00200000000001</v>
       </c>
-      <c r="AY25" s="4">
+      <c r="AY26" s="4">
         <v>3.21</v>
       </c>
-      <c r="AZ25" s="4">
+      <c r="AZ26" s="4">
         <v>156.20500000000001</v>
       </c>
-      <c r="BA25" s="4">
+      <c r="BA26" s="4">
         <v>3.262</v>
       </c>
-      <c r="BB25" s="4">
+      <c r="BB26" s="4">
         <v>154.97999999999999</v>
       </c>
-      <c r="BC25" s="4">
+      <c r="BC26" s="4">
         <v>3.3410000000000002</v>
       </c>
-      <c r="BD25" s="4">
+      <c r="BD26" s="4">
         <v>158.27799999999999</v>
       </c>
-      <c r="BE25" s="4">
+      <c r="BE26" s="4">
         <v>3.4660000000000002</v>
       </c>
-      <c r="BF25" s="4">
+      <c r="BF26" s="4">
         <v>161.73400000000001</v>
       </c>
-      <c r="BG25" s="4">
+      <c r="BG26" s="4">
         <v>3.585</v>
       </c>
-      <c r="BH25" s="4">
+      <c r="BH26" s="4">
         <v>165.489</v>
       </c>
-      <c r="BI25" s="4">
+      <c r="BI26" s="4">
         <v>3.6749999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>174.14</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>2.782</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>171.14699999999999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>2.8330000000000002</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F27" s="3">
         <v>165.62700000000001</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G27" s="3">
         <v>2.8479999999999999</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H27" s="3">
         <v>162.79</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I27" s="3">
         <v>2.8170000000000002</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J27" s="3">
         <v>159.92400000000001</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K27" s="3">
         <v>2.863</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L27" s="3">
         <v>159.55699999999999</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M27" s="3">
         <v>2.919</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N27" s="3">
         <v>158.76499999999999</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O27" s="3">
         <v>2.9729999999999999</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P27" s="3">
         <v>155.274</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q27" s="3">
         <v>3.0529999999999999</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R27" s="3">
         <v>156.30799999999999</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S27" s="3">
         <v>3.15</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T27" s="3">
         <v>157.636</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U27" s="3">
         <v>3.246</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V27" s="3">
         <v>151.56100000000001</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W27" s="3">
         <v>3.3570000000000002</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X27" s="3">
         <v>147.03899999999999</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y27" s="3">
         <v>3.4289999999999998</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z27" s="3">
         <v>145.46100000000001</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA27" s="3">
         <v>3.464</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AB27" s="3">
         <v>144.696</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC27" s="3">
         <v>3.5009999999999999</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD27" s="3">
         <v>139.934</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AE27" s="3">
         <v>3.5409999999999999</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AF27" s="3">
         <v>137.79</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AG27" s="3">
         <v>3.597</v>
       </c>
-      <c r="AH26" s="3">
+      <c r="AH27" s="3">
         <v>132.73699999999999</v>
       </c>
-      <c r="AI26" s="3">
+      <c r="AI27" s="3">
         <v>3.6669999999999998</v>
       </c>
-      <c r="AJ26" s="3">
+      <c r="AJ27" s="3">
         <v>130.80799999999999</v>
       </c>
-      <c r="AK26" s="3">
+      <c r="AK27" s="3">
         <v>3.726</v>
       </c>
-      <c r="AL26" s="3">
+      <c r="AL27" s="3">
         <v>127.59399999999999</v>
       </c>
-      <c r="AM26" s="3">
+      <c r="AM27" s="3">
         <v>3.7109999999999999</v>
       </c>
-      <c r="AN26" s="3">
+      <c r="AN27" s="3">
         <v>122.95399999999999</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AO27" s="3">
         <v>3.5670000000000002</v>
       </c>
-      <c r="AP26" s="3">
+      <c r="AP27" s="3">
         <v>118.351</v>
       </c>
-      <c r="AQ26" s="3">
+      <c r="AQ27" s="3">
         <v>3.55</v>
       </c>
-      <c r="AR26" s="3">
+      <c r="AR27" s="3">
         <v>117.81</v>
       </c>
-      <c r="AS26" s="3">
+      <c r="AS27" s="3">
         <v>3.5179999999999998</v>
       </c>
-      <c r="AT26" s="3">
+      <c r="AT27" s="3">
         <v>117.11499999999999</v>
       </c>
-      <c r="AU26" s="3">
+      <c r="AU27" s="3">
         <v>3.4350000000000001</v>
       </c>
-      <c r="AV26" s="3">
+      <c r="AV27" s="3">
         <v>113.904</v>
       </c>
-      <c r="AW26" s="3">
+      <c r="AW27" s="3">
         <v>3.4039999999999999</v>
       </c>
-      <c r="AX26" s="3">
+      <c r="AX27" s="3">
         <v>113.438</v>
       </c>
-      <c r="AY26" s="3">
+      <c r="AY27" s="3">
         <v>3.45</v>
       </c>
-      <c r="AZ26" s="3">
+      <c r="AZ27" s="3">
         <v>115.77800000000001</v>
       </c>
-      <c r="BA26" s="3">
+      <c r="BA27" s="3">
         <v>3.5619999999999998</v>
       </c>
-      <c r="BB26" s="3">
+      <c r="BB27" s="3">
         <v>114.057</v>
       </c>
-      <c r="BC26" s="3">
+      <c r="BC27" s="3">
         <v>3.6509999999999998</v>
       </c>
-      <c r="BD26" s="3">
+      <c r="BD27" s="3">
         <v>115.006</v>
       </c>
-      <c r="BE26" s="3">
+      <c r="BE27" s="3">
         <v>3.7360000000000002</v>
       </c>
-      <c r="BF26" s="3">
+      <c r="BF27" s="3">
         <v>117.27500000000001</v>
       </c>
-      <c r="BG26" s="3">
+      <c r="BG27" s="3">
         <v>3.806</v>
       </c>
-      <c r="BH26" s="3">
+      <c r="BH27" s="3">
         <v>121.06100000000001</v>
       </c>
-      <c r="BI26" s="3">
+      <c r="BI27" s="3">
         <v>3.8620000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>146.209</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C28" s="4">
         <v>3.4079999999999999</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D28" s="4">
         <v>142.708</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>3.359</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>137.31299999999999</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>3.3090000000000002</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H28" s="4">
         <v>133.65700000000001</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I28" s="4">
         <v>3.2360000000000002</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J28" s="4">
         <v>126.253</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K28" s="4">
         <v>3.3220000000000001</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L28" s="4">
         <v>123.965</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M28" s="4">
         <v>3.4140000000000001</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N28" s="4">
         <v>121.071</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O28" s="4">
         <v>3.45</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P28" s="4">
         <v>117.95399999999999</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q28" s="4">
         <v>3.532</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R28" s="4">
         <v>115.173</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S28" s="4">
         <v>3.6520000000000001</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T28" s="4">
         <v>113.096</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U28" s="4">
         <v>3.7749999999999999</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V28" s="4">
         <v>109.279</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W28" s="4">
         <v>3.915</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X28" s="4">
         <v>105.91200000000001</v>
       </c>
-      <c r="Y27" s="4">
+      <c r="Y28" s="4">
         <v>3.9550000000000001</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="Z28" s="4">
         <v>102.70399999999999</v>
       </c>
-      <c r="AA27" s="4">
+      <c r="AA28" s="4">
         <v>4.016</v>
       </c>
-      <c r="AB27" s="4">
+      <c r="AB28" s="4">
         <v>98.379000000000005</v>
       </c>
-      <c r="AC27" s="4">
+      <c r="AC28" s="4">
         <v>4.0789999999999997</v>
       </c>
-      <c r="AD27" s="4">
+      <c r="AD28" s="4">
         <v>95.063999999999993</v>
       </c>
-      <c r="AE27" s="4">
+      <c r="AE28" s="4">
         <v>4.2050000000000001</v>
       </c>
-      <c r="AF27" s="4">
+      <c r="AF28" s="4">
         <v>91.375</v>
       </c>
-      <c r="AG27" s="4">
+      <c r="AG28" s="4">
         <v>4.2830000000000004</v>
       </c>
-      <c r="AH27" s="4">
+      <c r="AH28" s="4">
         <v>88.474000000000004</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AI28" s="4">
         <v>4.4189999999999996</v>
       </c>
-      <c r="AJ27" s="4">
+      <c r="AJ28" s="4">
         <v>85.679000000000002</v>
       </c>
-      <c r="AK27" s="4">
+      <c r="AK28" s="4">
         <v>4.5140000000000002</v>
       </c>
-      <c r="AL27" s="4">
+      <c r="AL28" s="4">
         <v>83.034000000000006</v>
       </c>
-      <c r="AM27" s="4">
+      <c r="AM28" s="4">
         <v>4.4690000000000003</v>
       </c>
-      <c r="AN27" s="4">
+      <c r="AN28" s="4">
         <v>80.87</v>
       </c>
-      <c r="AO27" s="4">
+      <c r="AO28" s="4">
         <v>4.2850000000000001</v>
       </c>
-      <c r="AP27" s="4">
+      <c r="AP28" s="4">
         <v>78.796000000000006</v>
       </c>
-      <c r="AQ27" s="4">
+      <c r="AQ28" s="4">
         <v>4.4580000000000002</v>
       </c>
-      <c r="AR27" s="4">
+      <c r="AR28" s="4">
         <v>77.905000000000001</v>
       </c>
-      <c r="AS27" s="4">
+      <c r="AS28" s="4">
         <v>4.5419999999999998</v>
       </c>
-      <c r="AT27" s="4">
+      <c r="AT28" s="4">
         <v>76.518000000000001</v>
       </c>
-      <c r="AU27" s="4">
+      <c r="AU28" s="4">
         <v>4.492</v>
       </c>
-      <c r="AV27" s="4">
+      <c r="AV28" s="4">
         <v>75.003</v>
       </c>
-      <c r="AW27" s="4">
+      <c r="AW28" s="4">
         <v>4.5060000000000002</v>
       </c>
-      <c r="AX27" s="4">
+      <c r="AX28" s="4">
         <v>73.361999999999995</v>
       </c>
-      <c r="AY27" s="4">
+      <c r="AY28" s="4">
         <v>4.5730000000000004</v>
       </c>
-      <c r="AZ27" s="4">
+      <c r="AZ28" s="4">
         <v>73.066999999999993</v>
       </c>
-      <c r="BA27" s="4">
+      <c r="BA28" s="4">
         <v>4.7089999999999996</v>
       </c>
-      <c r="BB27" s="4">
+      <c r="BB28" s="4">
         <v>72.694000000000003</v>
       </c>
-      <c r="BC27" s="4">
+      <c r="BC28" s="4">
         <v>4.7590000000000003</v>
       </c>
-      <c r="BD27" s="4">
+      <c r="BD28" s="4">
         <v>72.948999999999998</v>
       </c>
-      <c r="BE27" s="4">
+      <c r="BE28" s="4">
         <v>4.8289999999999997</v>
       </c>
-      <c r="BF27" s="4">
+      <c r="BF28" s="4">
         <v>73.412000000000006</v>
       </c>
-      <c r="BG27" s="4">
+      <c r="BG28" s="4">
         <v>4.8780000000000001</v>
       </c>
-      <c r="BH27" s="4">
+      <c r="BH28" s="4">
         <v>73.64</v>
       </c>
-      <c r="BI27" s="4">
+      <c r="BI28" s="4">
         <v>4.9020000000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=EXP_MORSC&amp;Coords=[COU].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A11" r:id="rId1" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=EXP_MORSC&amp;Coords=[COU].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=EXP_MORSC&amp;Coords=[COU].[CYP]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{EB42FB4D-3E56-4A73-A937-0A678760E478}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
